--- a/notebooks/ITPR1/input/ITPR1_SCA29_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_SCA29_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6DBDF7-906E-9A4E-B9BC-31AB106FF48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37321B-B25F-774B-9201-F982C10827FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="2260" windowWidth="65020" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="6720" windowWidth="37640" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="481">
   <si>
     <t>PMID</t>
   </si>
@@ -634,9 +634,6 @@
     <t>NP_001365381.1:p.(Asn2591Thr)</t>
   </si>
   <si>
-    <t>Neurodevelopmental delay</t>
-  </si>
-  <si>
     <t>Cerebral palsy</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>Intellectual disability</t>
   </si>
   <si>
-    <t>Abnormal cerebellum morphology</t>
-  </si>
-  <si>
     <t>Myoclonus</t>
   </si>
   <si>
@@ -736,9 +730,6 @@
     <t>Atrophy/Degeneration affecting the brainstem</t>
   </si>
   <si>
-    <t>Neonatal hypotonia</t>
-  </si>
-  <si>
     <t>Bruxism</t>
   </si>
   <si>
@@ -1033,9 +1024,6 @@
     <t>Visual impairment</t>
   </si>
   <si>
-    <t>HP:0012758</t>
-  </si>
-  <si>
     <t>HP:0100021</t>
   </si>
   <si>
@@ -1063,9 +1051,6 @@
     <t>HP:0001249</t>
   </si>
   <si>
-    <t>HP:0001317</t>
-  </si>
-  <si>
     <t>HP:0001336</t>
   </si>
   <si>
@@ -1136,9 +1121,6 @@
   </si>
   <si>
     <t>HP:0007366</t>
-  </si>
-  <si>
-    <t>HP:0001319</t>
   </si>
   <si>
     <t>HP:0007369</t>
@@ -1473,6 +1455,15 @@
   <si>
     <t>P1Y
 na</t>
+  </si>
+  <si>
+    <t>Premature birth</t>
+  </si>
+  <si>
+    <t>HP:0001622</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
   </si>
 </sst>
 </file>
@@ -1850,12 +1841,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HU63"/>
+  <dimension ref="A1:IA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,12 +1854,12 @@
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="12" width="26.5" style="2" customWidth="1"/>
@@ -1877,16 +1868,24 @@
     <col min="15" max="15" width="9.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
-    <col min="18" max="30" width="12.6640625" style="2"/>
-    <col min="31" max="31" width="21.1640625" style="2" customWidth="1"/>
-    <col min="32" max="60" width="12.6640625" style="2"/>
-    <col min="61" max="61" width="21.6640625" style="2" customWidth="1"/>
-    <col min="62" max="170" width="12.6640625" style="2"/>
-    <col min="171" max="229" width="12.6640625" style="1"/>
-    <col min="230" max="16384" width="12.6640625" style="2"/>
+    <col min="18" max="35" width="12.6640625" style="2"/>
+    <col min="36" max="36" width="21.1640625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="21.6640625" style="2" customWidth="1"/>
+    <col min="38" max="54" width="12.6640625" style="2"/>
+    <col min="56" max="71" width="12.6640625" style="2"/>
+    <col min="73" max="133" width="12.6640625" style="2"/>
+    <col min="135" max="140" width="12.6640625" style="2"/>
+    <col min="142" max="143" width="12.6640625" style="2"/>
+    <col min="145" max="151" width="12.6640625" style="2"/>
+    <col min="153" max="156" width="12.6640625" style="2"/>
+    <col min="158" max="161" width="12.6640625" style="2"/>
+    <col min="163" max="165" width="12.6640625" style="2"/>
+    <col min="167" max="176" width="12.6640625" style="2"/>
+    <col min="177" max="235" width="12.6640625" style="1"/>
+    <col min="236" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1945,466 +1944,455 @@
         <v>205</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Z1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BF1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BV1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="FB1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="FC1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FD1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FE1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="FG1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="FH1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FI1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FK1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="FU1" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CG1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="CH1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="EP1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="ES1" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="ET1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="EU1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="EV1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="EW1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="EX1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="EY1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="EZ1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="FA1" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FB1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="FC1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="FD1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="FE1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="FF1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="FG1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="FH1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="FJ1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="FN1" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
       <c r="FW1" s="2"/>
       <c r="FX1" s="2"/>
       <c r="FY1" s="2"/>
@@ -2456,8 +2444,14 @@
       <c r="HS1" s="2"/>
       <c r="HT1" s="2"/>
       <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
     </row>
-    <row r="2" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2510,472 +2504,461 @@
         <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="CD2" s="2" t="s">
+      <c r="DK2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="EY2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="EZ2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="FB2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="FC2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="FD2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="FE2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="FH2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="FI2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="FK2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="FL2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="FM2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="FN2" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="FO2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="FP2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="FQ2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="FR2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FS2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="FT2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="FU2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="FV2" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="CE2" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="EX2" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="EY2" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="EZ2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="FA2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="FC2" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="FD2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="FE2" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="FI2" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="FJ2" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="FK2" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="FL2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="FM2" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="FN2" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="FO2" s="2"/>
-      <c r="FP2" s="2"/>
-      <c r="FQ2" s="2"/>
-      <c r="FR2" s="2"/>
-      <c r="FS2" s="2"/>
-      <c r="FT2" s="2"/>
-      <c r="FU2" s="2"/>
-      <c r="FV2" s="2"/>
       <c r="FW2" s="2"/>
       <c r="FX2" s="2"/>
       <c r="FY2" s="2"/>
@@ -3027,8 +3010,14 @@
       <c r="HS2" s="2"/>
       <c r="HT2" s="2"/>
       <c r="HU2" s="2"/>
+      <c r="HV2" s="2"/>
+      <c r="HW2" s="2"/>
+      <c r="HX2" s="2"/>
+      <c r="HY2" s="2"/>
+      <c r="HZ2" s="2"/>
+      <c r="IA2" s="2"/>
     </row>
-    <row r="3" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -3063,7 +3052,7 @@
         <v>80</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>81</v>
@@ -3092,54 +3081,45 @@
       <c r="V3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="X3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="FO3" s="2"/>
-      <c r="FP3" s="2"/>
-      <c r="FQ3" s="2"/>
-      <c r="FR3" s="2"/>
-      <c r="FS3" s="2"/>
-      <c r="FT3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DI3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="FU3" s="2"/>
       <c r="FV3" s="2"/>
       <c r="FW3" s="2"/>
@@ -3193,8 +3173,14 @@
       <c r="HS3" s="2"/>
       <c r="HT3" s="2"/>
       <c r="HU3" s="2"/>
+      <c r="HV3" s="2"/>
+      <c r="HW3" s="2"/>
+      <c r="HX3" s="2"/>
+      <c r="HY3" s="2"/>
+      <c r="HZ3" s="2"/>
+      <c r="IA3" s="2"/>
     </row>
-    <row r="4" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3243,60 +3229,54 @@
       <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R4" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="S4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>61</v>
+      <c r="V4" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO4" s="2"/>
-      <c r="FP4" s="2"/>
-      <c r="FQ4" s="2"/>
-      <c r="FR4" s="2"/>
-      <c r="FS4" s="2"/>
-      <c r="FT4" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="DJ4" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU4" s="2"/>
       <c r="FV4" s="2"/>
       <c r="FW4" s="2"/>
@@ -3350,8 +3330,14 @@
       <c r="HS4" s="2"/>
       <c r="HT4" s="2"/>
       <c r="HU4" s="2"/>
+      <c r="HV4" s="2"/>
+      <c r="HW4" s="2"/>
+      <c r="HX4" s="2"/>
+      <c r="HY4" s="2"/>
+      <c r="HZ4" s="2"/>
+      <c r="IA4" s="2"/>
     </row>
-    <row r="5" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -3406,44 +3392,51 @@
       <c r="S5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BN5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO5" s="2"/>
-      <c r="FP5" s="2"/>
-      <c r="FQ5" s="2"/>
-      <c r="FR5" s="2"/>
-      <c r="FS5" s="2"/>
-      <c r="FT5" s="2"/>
-      <c r="FU5" s="2"/>
-      <c r="FV5" s="2"/>
+      <c r="FU5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FV5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FW5" s="2"/>
       <c r="FX5" s="2"/>
       <c r="FY5" s="2"/>
@@ -3495,8 +3488,14 @@
       <c r="HS5" s="2"/>
       <c r="HT5" s="2"/>
       <c r="HU5" s="2"/>
+      <c r="HV5" s="2"/>
+      <c r="HW5" s="2"/>
+      <c r="HX5" s="2"/>
+      <c r="HY5" s="2"/>
+      <c r="HZ5" s="2"/>
+      <c r="IA5" s="2"/>
     </row>
-    <row r="6" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -3545,41 +3544,51 @@
       <c r="Q6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R6" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="S6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>28</v>
+      <c r="AA6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO6" s="2"/>
-      <c r="FP6" s="2"/>
-      <c r="FQ6" s="2"/>
-      <c r="FR6" s="2"/>
-      <c r="FS6" s="2"/>
-      <c r="FT6" s="2"/>
-      <c r="FU6" s="2"/>
-      <c r="FV6" s="2"/>
+      <c r="AF6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FU6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FV6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FW6" s="2"/>
       <c r="FX6" s="2"/>
       <c r="FY6" s="2"/>
@@ -3631,8 +3640,14 @@
       <c r="HS6" s="2"/>
       <c r="HT6" s="2"/>
       <c r="HU6" s="2"/>
+      <c r="HV6" s="2"/>
+      <c r="HW6" s="2"/>
+      <c r="HX6" s="2"/>
+      <c r="HY6" s="2"/>
+      <c r="HZ6" s="2"/>
+      <c r="IA6" s="2"/>
     </row>
-    <row r="7" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3681,57 +3696,63 @@
       <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R7" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S7" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>61</v>
+      <c r="V7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AT7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AU7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="FO7" s="2"/>
-      <c r="FP7" s="2"/>
-      <c r="FQ7" s="2"/>
-      <c r="FR7" s="2"/>
-      <c r="FS7" s="2"/>
-      <c r="FT7" s="2"/>
+      <c r="BB7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU7" s="2"/>
       <c r="FV7" s="2"/>
       <c r="FW7" s="2"/>
@@ -3785,8 +3806,14 @@
       <c r="HS7" s="2"/>
       <c r="HT7" s="2"/>
       <c r="HU7" s="2"/>
+      <c r="HV7" s="2"/>
+      <c r="HW7" s="2"/>
+      <c r="HX7" s="2"/>
+      <c r="HY7" s="2"/>
+      <c r="HZ7" s="2"/>
+      <c r="IA7" s="2"/>
     </row>
-    <row r="8" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -3835,75 +3862,90 @@
       <c r="Q8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>28</v>
+      <c r="AA8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AL8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BK8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BP8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO8" s="2"/>
-      <c r="FP8" s="2"/>
-      <c r="FQ8" s="2"/>
-      <c r="FR8" s="2"/>
-      <c r="FS8" s="2"/>
-      <c r="FT8" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU8" s="2"/>
       <c r="FV8" s="2"/>
       <c r="FW8" s="2"/>
@@ -3957,8 +3999,14 @@
       <c r="HS8" s="2"/>
       <c r="HT8" s="2"/>
       <c r="HU8" s="2"/>
+      <c r="HV8" s="2"/>
+      <c r="HW8" s="2"/>
+      <c r="HX8" s="2"/>
+      <c r="HY8" s="2"/>
+      <c r="HZ8" s="2"/>
+      <c r="IA8" s="2"/>
     </row>
-    <row r="9" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -4007,75 +4055,90 @@
       <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R9" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>28</v>
+      <c r="AA9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AL9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BK9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BP9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO9" s="2"/>
-      <c r="FP9" s="2"/>
-      <c r="FQ9" s="2"/>
-      <c r="FR9" s="2"/>
-      <c r="FS9" s="2"/>
-      <c r="FT9" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU9" s="2"/>
       <c r="FV9" s="2"/>
       <c r="FW9" s="2"/>
@@ -4129,8 +4192,14 @@
       <c r="HS9" s="2"/>
       <c r="HT9" s="2"/>
       <c r="HU9" s="2"/>
+      <c r="HV9" s="2"/>
+      <c r="HW9" s="2"/>
+      <c r="HX9" s="2"/>
+      <c r="HY9" s="2"/>
+      <c r="HZ9" s="2"/>
+      <c r="IA9" s="2"/>
     </row>
-    <row r="10" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -4179,75 +4248,90 @@
       <c r="Q10" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>28</v>
+      <c r="AA10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AI10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="AK10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AL10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BK10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BP10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO10" s="2"/>
-      <c r="FP10" s="2"/>
-      <c r="FQ10" s="2"/>
-      <c r="FR10" s="2"/>
-      <c r="FS10" s="2"/>
-      <c r="FT10" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ10" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU10" s="2"/>
       <c r="FV10" s="2"/>
       <c r="FW10" s="2"/>
@@ -4301,8 +4385,14 @@
       <c r="HS10" s="2"/>
       <c r="HT10" s="2"/>
       <c r="HU10" s="2"/>
+      <c r="HV10" s="2"/>
+      <c r="HW10" s="2"/>
+      <c r="HX10" s="2"/>
+      <c r="HY10" s="2"/>
+      <c r="HZ10" s="2"/>
+      <c r="IA10" s="2"/>
     </row>
-    <row r="11" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -4351,75 +4441,90 @@
       <c r="Q11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R11" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>28</v>
+      <c r="AA11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AL11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BK11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BL11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BO11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BP11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO11" s="2"/>
-      <c r="FP11" s="2"/>
-      <c r="FQ11" s="2"/>
-      <c r="FR11" s="2"/>
-      <c r="FS11" s="2"/>
-      <c r="FT11" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ11" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU11" s="2"/>
       <c r="FV11" s="2"/>
       <c r="FW11" s="2"/>
@@ -4473,8 +4578,14 @@
       <c r="HS11" s="2"/>
       <c r="HT11" s="2"/>
       <c r="HU11" s="2"/>
+      <c r="HV11" s="2"/>
+      <c r="HW11" s="2"/>
+      <c r="HX11" s="2"/>
+      <c r="HY11" s="2"/>
+      <c r="HZ11" s="2"/>
+      <c r="IA11" s="2"/>
     </row>
-    <row r="12" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -4523,59 +4634,56 @@
       <c r="Q12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AL12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>61</v>
+      <c r="BI12" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BK12" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BL12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="BN12" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BP12" s="2" t="s">
         <v>72</v>
@@ -4583,15 +4691,15 @@
       <c r="BQ12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BR12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO12" s="2"/>
-      <c r="FP12" s="2"/>
-      <c r="FQ12" s="2"/>
-      <c r="FR12" s="2"/>
-      <c r="FS12" s="2"/>
-      <c r="FT12" s="2"/>
+      <c r="BS12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DJ12" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU12" s="2"/>
       <c r="FV12" s="2"/>
       <c r="FW12" s="2"/>
@@ -4645,8 +4753,14 @@
       <c r="HS12" s="2"/>
       <c r="HT12" s="2"/>
       <c r="HU12" s="2"/>
+      <c r="HV12" s="2"/>
+      <c r="HW12" s="2"/>
+      <c r="HX12" s="2"/>
+      <c r="HY12" s="2"/>
+      <c r="HZ12" s="2"/>
+      <c r="IA12" s="2"/>
     </row>
-    <row r="13" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -4695,72 +4809,72 @@
       <c r="Q13" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK13" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AL13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH13" s="2" t="s">
+      <c r="BI13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BK13" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BL13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="BN13" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BP13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO13" s="2"/>
-      <c r="FP13" s="2"/>
-      <c r="FQ13" s="2"/>
-      <c r="FR13" s="2"/>
-      <c r="FS13" s="2"/>
-      <c r="FT13" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="BS13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DJ13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU13" s="2"/>
       <c r="FV13" s="2"/>
       <c r="FW13" s="2"/>
@@ -4814,8 +4928,14 @@
       <c r="HS13" s="2"/>
       <c r="HT13" s="2"/>
       <c r="HU13" s="2"/>
+      <c r="HV13" s="2"/>
+      <c r="HW13" s="2"/>
+      <c r="HX13" s="2"/>
+      <c r="HY13" s="2"/>
+      <c r="HZ13" s="2"/>
+      <c r="IA13" s="2"/>
     </row>
-    <row r="14" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -4864,75 +4984,72 @@
       <c r="Q14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AL14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
+      <c r="BI14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BK14" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BL14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BN14" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BO14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BP14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO14" s="2"/>
-      <c r="FP14" s="2"/>
-      <c r="FQ14" s="2"/>
-      <c r="FR14" s="2"/>
-      <c r="FS14" s="2"/>
-      <c r="FT14" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="BS14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DJ14" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU14" s="2"/>
       <c r="FV14" s="2"/>
       <c r="FW14" s="2"/>
@@ -4986,8 +5103,14 @@
       <c r="HS14" s="2"/>
       <c r="HT14" s="2"/>
       <c r="HU14" s="2"/>
+      <c r="HV14" s="2"/>
+      <c r="HW14" s="2"/>
+      <c r="HX14" s="2"/>
+      <c r="HY14" s="2"/>
+      <c r="HZ14" s="2"/>
+      <c r="IA14" s="2"/>
     </row>
-    <row r="15" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -5036,69 +5159,72 @@
       <c r="Q15" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AK15" s="2" t="s">
-        <v>61</v>
+      <c r="AI15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AL15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BA15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH15" s="2" t="s">
+      <c r="BI15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BN15" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BP15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BR15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO15" s="2"/>
-      <c r="FP15" s="2"/>
-      <c r="FQ15" s="2"/>
-      <c r="FR15" s="2"/>
-      <c r="FS15" s="2"/>
-      <c r="FT15" s="2"/>
+      <c r="BQ15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DJ15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU15" s="2"/>
       <c r="FV15" s="2"/>
       <c r="FW15" s="2"/>
@@ -5152,8 +5278,14 @@
       <c r="HS15" s="2"/>
       <c r="HT15" s="2"/>
       <c r="HU15" s="2"/>
+      <c r="HV15" s="2"/>
+      <c r="HW15" s="2"/>
+      <c r="HX15" s="2"/>
+      <c r="HY15" s="2"/>
+      <c r="HZ15" s="2"/>
+      <c r="IA15" s="2"/>
     </row>
-    <row r="16" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>125</v>
       </c>
@@ -5202,65 +5334,59 @@
       <c r="Q16" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R16" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AD16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BB16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU16" s="2" t="s">
+      <c r="BL16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BV16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BW16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="BX16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BY16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BZ16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="CA16" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="CB16" s="2" t="s">
         <v>61</v>
@@ -5269,7 +5395,7 @@
         <v>61</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="CE16" s="2" t="s">
         <v>61</v>
@@ -5289,27 +5415,27 @@
       <c r="CJ16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="CK16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CL16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CM16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CR16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CS16" s="2" t="s">
+      <c r="CN16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CO16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CT16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="CU16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CV16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CW16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="CX16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5325,15 +5451,15 @@
       <c r="DB16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="DC16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="DD16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FO16" s="2"/>
-      <c r="FP16" s="2"/>
-      <c r="FQ16" s="2"/>
-      <c r="FR16" s="2"/>
-      <c r="FS16" s="2"/>
-      <c r="FT16" s="2"/>
+      <c r="DF16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU16" s="2"/>
       <c r="FV16" s="2"/>
       <c r="FW16" s="2"/>
@@ -5387,8 +5513,14 @@
       <c r="HS16" s="2"/>
       <c r="HT16" s="2"/>
       <c r="HU16" s="2"/>
+      <c r="HV16" s="2"/>
+      <c r="HW16" s="2"/>
+      <c r="HX16" s="2"/>
+      <c r="HY16" s="2"/>
+      <c r="HZ16" s="2"/>
+      <c r="IA16" s="2"/>
     </row>
-    <row r="17" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>125</v>
       </c>
@@ -5437,31 +5569,25 @@
       <c r="Q17" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R17" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BW17" s="2" t="s">
@@ -5470,66 +5596,66 @@
       <c r="BX17" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BZ17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CA17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CD17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CE17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CF17" s="2" t="s">
+      <c r="CG17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CI17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CJ17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="CK17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CN17" s="2" t="s">
+      <c r="CL17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CP17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CQ17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="CR17" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="CS17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CT17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CU17" s="2" t="s">
+      <c r="CV17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CW17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CZ17" s="2" t="s">
+      <c r="CY17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DB17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="DC17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="DD17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FO17" s="2"/>
-      <c r="FP17" s="2"/>
-      <c r="FQ17" s="2"/>
-      <c r="FR17" s="2"/>
-      <c r="FS17" s="2"/>
-      <c r="FT17" s="2"/>
+      <c r="DE17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DF17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU17" s="2"/>
       <c r="FV17" s="2"/>
       <c r="FW17" s="2"/>
@@ -5583,8 +5709,14 @@
       <c r="HS17" s="2"/>
       <c r="HT17" s="2"/>
       <c r="HU17" s="2"/>
+      <c r="HV17" s="2"/>
+      <c r="HW17" s="2"/>
+      <c r="HX17" s="2"/>
+      <c r="HY17" s="2"/>
+      <c r="HZ17" s="2"/>
+      <c r="IA17" s="2"/>
     </row>
-    <row r="18" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -5633,28 +5765,22 @@
       <c r="Q18" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BX18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CA18" s="2" t="s">
@@ -5663,42 +5789,42 @@
       <c r="CB18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CC18" s="2" t="s">
+      <c r="CD18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CE18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CN18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CO18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CR18" s="2" t="s">
+      <c r="CF18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CP18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CT18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CU18" s="2" t="s">
+      <c r="CV18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CW18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="DB18" s="2" t="s">
+      <c r="CY18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DD18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO18" s="2"/>
-      <c r="FP18" s="2"/>
-      <c r="FQ18" s="2"/>
-      <c r="FR18" s="2"/>
-      <c r="FS18" s="2"/>
-      <c r="FT18" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="DF18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU18" s="2"/>
       <c r="FV18" s="2"/>
       <c r="FW18" s="2"/>
@@ -5752,8 +5878,14 @@
       <c r="HS18" s="2"/>
       <c r="HT18" s="2"/>
       <c r="HU18" s="2"/>
+      <c r="HV18" s="2"/>
+      <c r="HW18" s="2"/>
+      <c r="HX18" s="2"/>
+      <c r="HY18" s="2"/>
+      <c r="HZ18" s="2"/>
+      <c r="IA18" s="2"/>
     </row>
-    <row r="19" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
@@ -5802,37 +5934,31 @@
       <c r="Q19" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R19" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DF19" s="2" t="s">
+      <c r="AA19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CV19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DG19" s="2" t="s">
@@ -5841,12 +5967,12 @@
       <c r="DH19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FO19" s="2"/>
-      <c r="FP19" s="2"/>
-      <c r="FQ19" s="2"/>
-      <c r="FR19" s="2"/>
-      <c r="FS19" s="2"/>
-      <c r="FT19" s="2"/>
+      <c r="DI19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN19" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU19" s="2"/>
       <c r="FV19" s="2"/>
       <c r="FW19" s="2"/>
@@ -5900,8 +6026,14 @@
       <c r="HS19" s="2"/>
       <c r="HT19" s="2"/>
       <c r="HU19" s="2"/>
+      <c r="HV19" s="2"/>
+      <c r="HW19" s="2"/>
+      <c r="HX19" s="2"/>
+      <c r="HY19" s="2"/>
+      <c r="HZ19" s="2"/>
+      <c r="IA19" s="2"/>
     </row>
-    <row r="20" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>128</v>
       </c>
@@ -5950,51 +6082,45 @@
       <c r="Q20" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DF20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CV20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DG20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DI20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FO20" s="2"/>
-      <c r="FP20" s="2"/>
-      <c r="FQ20" s="2"/>
-      <c r="FR20" s="2"/>
-      <c r="FS20" s="2"/>
-      <c r="FT20" s="2"/>
+      <c r="DO20" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU20" s="2"/>
       <c r="FV20" s="2"/>
       <c r="FW20" s="2"/>
@@ -6048,8 +6174,14 @@
       <c r="HS20" s="2"/>
       <c r="HT20" s="2"/>
       <c r="HU20" s="2"/>
+      <c r="HV20" s="2"/>
+      <c r="HW20" s="2"/>
+      <c r="HX20" s="2"/>
+      <c r="HY20" s="2"/>
+      <c r="HZ20" s="2"/>
+      <c r="IA20" s="2"/>
     </row>
-    <row r="21" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -6098,39 +6230,33 @@
       <c r="Q21" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DF21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO21" s="2"/>
-      <c r="FP21" s="2"/>
-      <c r="FQ21" s="2"/>
-      <c r="FR21" s="2"/>
-      <c r="FS21" s="2"/>
-      <c r="FT21" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH21" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU21" s="2"/>
       <c r="FV21" s="2"/>
       <c r="FW21" s="2"/>
@@ -6184,8 +6310,14 @@
       <c r="HS21" s="2"/>
       <c r="HT21" s="2"/>
       <c r="HU21" s="2"/>
+      <c r="HV21" s="2"/>
+      <c r="HW21" s="2"/>
+      <c r="HX21" s="2"/>
+      <c r="HY21" s="2"/>
+      <c r="HZ21" s="2"/>
+      <c r="IA21" s="2"/>
     </row>
-    <row r="22" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>137</v>
       </c>
@@ -6234,45 +6366,39 @@
       <c r="Q22" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DL22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DN22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO22" s="2"/>
-      <c r="FP22" s="2"/>
-      <c r="FQ22" s="2"/>
-      <c r="FR22" s="2"/>
-      <c r="FS22" s="2"/>
-      <c r="FT22" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DY22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU22" s="2"/>
       <c r="FV22" s="2"/>
       <c r="FW22" s="2"/>
@@ -6326,8 +6452,14 @@
       <c r="HS22" s="2"/>
       <c r="HT22" s="2"/>
       <c r="HU22" s="2"/>
+      <c r="HV22" s="2"/>
+      <c r="HW22" s="2"/>
+      <c r="HX22" s="2"/>
+      <c r="HY22" s="2"/>
+      <c r="HZ22" s="2"/>
+      <c r="IA22" s="2"/>
     </row>
-    <row r="23" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -6376,48 +6508,42 @@
       <c r="Q23" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R23" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DO23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DT23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO23" s="2"/>
-      <c r="FP23" s="2"/>
-      <c r="FQ23" s="2"/>
-      <c r="FR23" s="2"/>
-      <c r="FS23" s="2"/>
-      <c r="FT23" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DY23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ23" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU23" s="2"/>
       <c r="FV23" s="2"/>
       <c r="FW23" s="2"/>
@@ -6471,8 +6597,14 @@
       <c r="HS23" s="2"/>
       <c r="HT23" s="2"/>
       <c r="HU23" s="2"/>
+      <c r="HV23" s="2"/>
+      <c r="HW23" s="2"/>
+      <c r="HX23" s="2"/>
+      <c r="HY23" s="2"/>
+      <c r="HZ23" s="2"/>
+      <c r="IA23" s="2"/>
     </row>
-    <row r="24" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>137</v>
       </c>
@@ -6521,24 +6653,18 @@
       <c r="Q24" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DL24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO24" s="2"/>
-      <c r="FP24" s="2"/>
-      <c r="FQ24" s="2"/>
-      <c r="FR24" s="2"/>
-      <c r="FS24" s="2"/>
-      <c r="FT24" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DR24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU24" s="2"/>
       <c r="FV24" s="2"/>
       <c r="FW24" s="2"/>
@@ -6592,8 +6718,14 @@
       <c r="HS24" s="2"/>
       <c r="HT24" s="2"/>
       <c r="HU24" s="2"/>
+      <c r="HV24" s="2"/>
+      <c r="HW24" s="2"/>
+      <c r="HX24" s="2"/>
+      <c r="HY24" s="2"/>
+      <c r="HZ24" s="2"/>
+      <c r="IA24" s="2"/>
     </row>
-    <row r="25" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>137</v>
       </c>
@@ -6642,27 +6774,21 @@
       <c r="Q25" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DL25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO25" s="2"/>
-      <c r="FP25" s="2"/>
-      <c r="FQ25" s="2"/>
-      <c r="FR25" s="2"/>
-      <c r="FS25" s="2"/>
-      <c r="FT25" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DR25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DS25" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU25" s="2"/>
       <c r="FV25" s="2"/>
       <c r="FW25" s="2"/>
@@ -6716,8 +6842,14 @@
       <c r="HS25" s="2"/>
       <c r="HT25" s="2"/>
       <c r="HU25" s="2"/>
+      <c r="HV25" s="2"/>
+      <c r="HW25" s="2"/>
+      <c r="HX25" s="2"/>
+      <c r="HY25" s="2"/>
+      <c r="HZ25" s="2"/>
+      <c r="IA25" s="2"/>
     </row>
-    <row r="26" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -6766,45 +6898,39 @@
       <c r="Q26" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R26" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CU26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DP26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DQ26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO26" s="2"/>
-      <c r="FP26" s="2"/>
-      <c r="FQ26" s="2"/>
-      <c r="FR26" s="2"/>
-      <c r="FS26" s="2"/>
-      <c r="FT26" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CW26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW26" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU26" s="2"/>
       <c r="FV26" s="2"/>
       <c r="FW26" s="2"/>
@@ -6858,8 +6984,14 @@
       <c r="HS26" s="2"/>
       <c r="HT26" s="2"/>
       <c r="HU26" s="2"/>
+      <c r="HV26" s="2"/>
+      <c r="HW26" s="2"/>
+      <c r="HX26" s="2"/>
+      <c r="HY26" s="2"/>
+      <c r="HZ26" s="2"/>
+      <c r="IA26" s="2"/>
     </row>
-    <row r="27" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -6908,51 +7040,45 @@
       <c r="Q27" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DP27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO27" s="2"/>
-      <c r="FP27" s="2"/>
-      <c r="FQ27" s="2"/>
-      <c r="FR27" s="2"/>
-      <c r="FS27" s="2"/>
-      <c r="FT27" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="DV27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DX27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DY27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU27" s="2"/>
       <c r="FV27" s="2"/>
       <c r="FW27" s="2"/>
@@ -7006,8 +7132,14 @@
       <c r="HS27" s="2"/>
       <c r="HT27" s="2"/>
       <c r="HU27" s="2"/>
+      <c r="HV27" s="2"/>
+      <c r="HW27" s="2"/>
+      <c r="HX27" s="2"/>
+      <c r="HY27" s="2"/>
+      <c r="HZ27" s="2"/>
+      <c r="IA27" s="2"/>
     </row>
-    <row r="28" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
@@ -7056,48 +7188,42 @@
       <c r="Q28" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R28" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DQ28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DS28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DT28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO28" s="2"/>
-      <c r="FP28" s="2"/>
-      <c r="FQ28" s="2"/>
-      <c r="FR28" s="2"/>
-      <c r="FS28" s="2"/>
-      <c r="FT28" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DW28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ28" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU28" s="2"/>
       <c r="FV28" s="2"/>
       <c r="FW28" s="2"/>
@@ -7151,8 +7277,14 @@
       <c r="HS28" s="2"/>
       <c r="HT28" s="2"/>
       <c r="HU28" s="2"/>
+      <c r="HV28" s="2"/>
+      <c r="HW28" s="2"/>
+      <c r="HX28" s="2"/>
+      <c r="HY28" s="2"/>
+      <c r="HZ28" s="2"/>
+      <c r="IA28" s="2"/>
     </row>
-    <row r="29" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -7201,63 +7333,57 @@
       <c r="Q29" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R29" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CW29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CY29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO29" s="2"/>
-      <c r="FP29" s="2"/>
-      <c r="FQ29" s="2"/>
-      <c r="FR29" s="2"/>
-      <c r="FS29" s="2"/>
-      <c r="FT29" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="EC29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH29" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU29" s="2"/>
       <c r="FV29" s="2"/>
       <c r="FW29" s="2"/>
@@ -7311,8 +7437,14 @@
       <c r="HS29" s="2"/>
       <c r="HT29" s="2"/>
       <c r="HU29" s="2"/>
+      <c r="HV29" s="2"/>
+      <c r="HW29" s="2"/>
+      <c r="HX29" s="2"/>
+      <c r="HY29" s="2"/>
+      <c r="HZ29" s="2"/>
+      <c r="IA29" s="2"/>
     </row>
-    <row r="30" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>152</v>
       </c>
@@ -7361,63 +7493,57 @@
       <c r="Q30" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R30" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CW30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DG30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CY30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DI30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DK30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO30" s="2"/>
-      <c r="FP30" s="2"/>
-      <c r="FQ30" s="2"/>
-      <c r="FR30" s="2"/>
-      <c r="FS30" s="2"/>
-      <c r="FT30" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="EC30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH30" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU30" s="2"/>
       <c r="FV30" s="2"/>
       <c r="FW30" s="2"/>
@@ -7471,8 +7597,14 @@
       <c r="HS30" s="2"/>
       <c r="HT30" s="2"/>
       <c r="HU30" s="2"/>
+      <c r="HV30" s="2"/>
+      <c r="HW30" s="2"/>
+      <c r="HX30" s="2"/>
+      <c r="HY30" s="2"/>
+      <c r="HZ30" s="2"/>
+      <c r="IA30" s="2"/>
     </row>
-    <row r="31" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>152</v>
       </c>
@@ -7521,63 +7653,57 @@
       <c r="Q31" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R31" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BF31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX31" s="2" t="s">
+      <c r="AP31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO31" s="2"/>
-      <c r="FP31" s="2"/>
-      <c r="FQ31" s="2"/>
-      <c r="FR31" s="2"/>
-      <c r="FS31" s="2"/>
-      <c r="FT31" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="EC31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH31" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU31" s="2"/>
       <c r="FV31" s="2"/>
       <c r="FW31" s="2"/>
@@ -7631,8 +7757,14 @@
       <c r="HS31" s="2"/>
       <c r="HT31" s="2"/>
       <c r="HU31" s="2"/>
+      <c r="HV31" s="2"/>
+      <c r="HW31" s="2"/>
+      <c r="HX31" s="2"/>
+      <c r="HY31" s="2"/>
+      <c r="HZ31" s="2"/>
+      <c r="IA31" s="2"/>
     </row>
-    <row r="32" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
@@ -7681,66 +7813,60 @@
       <c r="Q32" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R32" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX32" s="2" t="s">
+      <c r="AP32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA32" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO32" s="2"/>
-      <c r="FP32" s="2"/>
-      <c r="FQ32" s="2"/>
-      <c r="FR32" s="2"/>
-      <c r="FS32" s="2"/>
-      <c r="FT32" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="EC32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH32" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU32" s="2"/>
       <c r="FV32" s="2"/>
       <c r="FW32" s="2"/>
@@ -7794,8 +7920,14 @@
       <c r="HS32" s="2"/>
       <c r="HT32" s="2"/>
       <c r="HU32" s="2"/>
+      <c r="HV32" s="2"/>
+      <c r="HW32" s="2"/>
+      <c r="HX32" s="2"/>
+      <c r="HY32" s="2"/>
+      <c r="HZ32" s="2"/>
+      <c r="IA32" s="2"/>
     </row>
-    <row r="33" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
@@ -7844,63 +7976,57 @@
       <c r="Q33" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DW33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="FO33" s="2"/>
-      <c r="FP33" s="2"/>
-      <c r="FQ33" s="2"/>
-      <c r="FR33" s="2"/>
-      <c r="FS33" s="2"/>
-      <c r="FT33" s="2"/>
+      <c r="EC33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU33" s="2"/>
       <c r="FV33" s="2"/>
       <c r="FW33" s="2"/>
@@ -7954,8 +8080,14 @@
       <c r="HS33" s="2"/>
       <c r="HT33" s="2"/>
       <c r="HU33" s="2"/>
+      <c r="HV33" s="2"/>
+      <c r="HW33" s="2"/>
+      <c r="HX33" s="2"/>
+      <c r="HY33" s="2"/>
+      <c r="HZ33" s="2"/>
+      <c r="IA33" s="2"/>
     </row>
-    <row r="34" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>152</v>
       </c>
@@ -8004,63 +8136,57 @@
       <c r="Q34" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R34" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DW34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EB34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="FO34" s="2"/>
-      <c r="FP34" s="2"/>
-      <c r="FQ34" s="2"/>
-      <c r="FR34" s="2"/>
-      <c r="FS34" s="2"/>
-      <c r="FT34" s="2"/>
+      <c r="EC34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH34" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU34" s="2"/>
       <c r="FV34" s="2"/>
       <c r="FW34" s="2"/>
@@ -8114,8 +8240,14 @@
       <c r="HS34" s="2"/>
       <c r="HT34" s="2"/>
       <c r="HU34" s="2"/>
+      <c r="HV34" s="2"/>
+      <c r="HW34" s="2"/>
+      <c r="HX34" s="2"/>
+      <c r="HY34" s="2"/>
+      <c r="HZ34" s="2"/>
+      <c r="IA34" s="2"/>
     </row>
-    <row r="35" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
@@ -8164,45 +8296,39 @@
       <c r="Q35" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DY35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EB35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO35" s="2"/>
-      <c r="FP35" s="2"/>
-      <c r="FQ35" s="2"/>
-      <c r="FR35" s="2"/>
-      <c r="FS35" s="2"/>
-      <c r="FT35" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EE35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EF35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EH35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU35" s="2"/>
       <c r="FV35" s="2"/>
       <c r="FW35" s="2"/>
@@ -8256,8 +8382,14 @@
       <c r="HS35" s="2"/>
       <c r="HT35" s="2"/>
       <c r="HU35" s="2"/>
+      <c r="HV35" s="2"/>
+      <c r="HW35" s="2"/>
+      <c r="HX35" s="2"/>
+      <c r="HY35" s="2"/>
+      <c r="HZ35" s="2"/>
+      <c r="IA35" s="2"/>
     </row>
-    <row r="36" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -8306,36 +8438,30 @@
       <c r="Q36" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R36" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO36" s="2"/>
-      <c r="FP36" s="2"/>
-      <c r="FQ36" s="2"/>
-      <c r="FR36" s="2"/>
-      <c r="FS36" s="2"/>
-      <c r="FT36" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG36" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU36" s="2"/>
       <c r="FV36" s="2"/>
       <c r="FW36" s="2"/>
@@ -8389,8 +8515,14 @@
       <c r="HS36" s="2"/>
       <c r="HT36" s="2"/>
       <c r="HU36" s="2"/>
+      <c r="HV36" s="2"/>
+      <c r="HW36" s="2"/>
+      <c r="HX36" s="2"/>
+      <c r="HY36" s="2"/>
+      <c r="HZ36" s="2"/>
+      <c r="IA36" s="2"/>
     </row>
-    <row r="37" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>167</v>
       </c>
@@ -8439,48 +8571,42 @@
       <c r="Q37" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R37" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO37" s="2"/>
-      <c r="FP37" s="2"/>
-      <c r="FQ37" s="2"/>
-      <c r="FR37" s="2"/>
-      <c r="FS37" s="2"/>
-      <c r="FT37" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH37" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU37" s="2"/>
       <c r="FV37" s="2"/>
       <c r="FW37" s="2"/>
@@ -8534,8 +8660,14 @@
       <c r="HS37" s="2"/>
       <c r="HT37" s="2"/>
       <c r="HU37" s="2"/>
+      <c r="HV37" s="2"/>
+      <c r="HW37" s="2"/>
+      <c r="HX37" s="2"/>
+      <c r="HY37" s="2"/>
+      <c r="HZ37" s="2"/>
+      <c r="IA37" s="2"/>
     </row>
-    <row r="38" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
@@ -8584,39 +8716,33 @@
       <c r="Q38" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R38" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO38" s="2"/>
-      <c r="FP38" s="2"/>
-      <c r="FQ38" s="2"/>
-      <c r="FR38" s="2"/>
-      <c r="FS38" s="2"/>
-      <c r="FT38" s="2"/>
+      <c r="AA38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG38" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU38" s="2"/>
       <c r="FV38" s="2"/>
       <c r="FW38" s="2"/>
@@ -8670,8 +8796,14 @@
       <c r="HS38" s="2"/>
       <c r="HT38" s="2"/>
       <c r="HU38" s="2"/>
+      <c r="HV38" s="2"/>
+      <c r="HW38" s="2"/>
+      <c r="HX38" s="2"/>
+      <c r="HY38" s="2"/>
+      <c r="HZ38" s="2"/>
+      <c r="IA38" s="2"/>
     </row>
-    <row r="39" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
@@ -8720,45 +8852,39 @@
       <c r="Q39" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R39" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EB39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO39" s="2"/>
-      <c r="FP39" s="2"/>
-      <c r="FQ39" s="2"/>
-      <c r="FR39" s="2"/>
-      <c r="FS39" s="2"/>
-      <c r="FT39" s="2"/>
+      <c r="AA39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EH39" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU39" s="2"/>
       <c r="FV39" s="2"/>
       <c r="FW39" s="2"/>
@@ -8812,8 +8938,14 @@
       <c r="HS39" s="2"/>
       <c r="HT39" s="2"/>
       <c r="HU39" s="2"/>
+      <c r="HV39" s="2"/>
+      <c r="HW39" s="2"/>
+      <c r="HX39" s="2"/>
+      <c r="HY39" s="2"/>
+      <c r="HZ39" s="2"/>
+      <c r="IA39" s="2"/>
     </row>
-    <row r="40" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>167</v>
       </c>
@@ -8862,33 +8994,27 @@
       <c r="Q40" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R40" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO40" s="2"/>
-      <c r="FP40" s="2"/>
-      <c r="FQ40" s="2"/>
-      <c r="FR40" s="2"/>
-      <c r="FS40" s="2"/>
-      <c r="FT40" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG40" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU40" s="2"/>
       <c r="FV40" s="2"/>
       <c r="FW40" s="2"/>
@@ -8942,8 +9068,14 @@
       <c r="HS40" s="2"/>
       <c r="HT40" s="2"/>
       <c r="HU40" s="2"/>
+      <c r="HV40" s="2"/>
+      <c r="HW40" s="2"/>
+      <c r="HX40" s="2"/>
+      <c r="HY40" s="2"/>
+      <c r="HZ40" s="2"/>
+      <c r="IA40" s="2"/>
     </row>
-    <row r="41" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -8992,33 +9124,27 @@
       <c r="Q41" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R41" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO41" s="2"/>
-      <c r="FP41" s="2"/>
-      <c r="FQ41" s="2"/>
-      <c r="FR41" s="2"/>
-      <c r="FS41" s="2"/>
-      <c r="FT41" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG41" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU41" s="2"/>
       <c r="FV41" s="2"/>
       <c r="FW41" s="2"/>
@@ -9072,8 +9198,14 @@
       <c r="HS41" s="2"/>
       <c r="HT41" s="2"/>
       <c r="HU41" s="2"/>
+      <c r="HV41" s="2"/>
+      <c r="HW41" s="2"/>
+      <c r="HX41" s="2"/>
+      <c r="HY41" s="2"/>
+      <c r="HZ41" s="2"/>
+      <c r="IA41" s="2"/>
     </row>
-    <row r="42" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>167</v>
       </c>
@@ -9122,39 +9254,33 @@
       <c r="Q42" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R42" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO42" s="2"/>
-      <c r="FP42" s="2"/>
-      <c r="FQ42" s="2"/>
-      <c r="FR42" s="2"/>
-      <c r="FS42" s="2"/>
-      <c r="FT42" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG42" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU42" s="2"/>
       <c r="FV42" s="2"/>
       <c r="FW42" s="2"/>
@@ -9208,8 +9334,14 @@
       <c r="HS42" s="2"/>
       <c r="HT42" s="2"/>
       <c r="HU42" s="2"/>
+      <c r="HV42" s="2"/>
+      <c r="HW42" s="2"/>
+      <c r="HX42" s="2"/>
+      <c r="HY42" s="2"/>
+      <c r="HZ42" s="2"/>
+      <c r="IA42" s="2"/>
     </row>
-    <row r="43" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>167</v>
       </c>
@@ -9258,48 +9390,42 @@
       <c r="Q43" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R43" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EB43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FO43" s="2"/>
-      <c r="FP43" s="2"/>
-      <c r="FQ43" s="2"/>
-      <c r="FR43" s="2"/>
-      <c r="FS43" s="2"/>
-      <c r="FT43" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EH43" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="FU43" s="2"/>
       <c r="FV43" s="2"/>
       <c r="FW43" s="2"/>
@@ -9353,8 +9479,14 @@
       <c r="HS43" s="2"/>
       <c r="HT43" s="2"/>
       <c r="HU43" s="2"/>
+      <c r="HV43" s="2"/>
+      <c r="HW43" s="2"/>
+      <c r="HX43" s="2"/>
+      <c r="HY43" s="2"/>
+      <c r="HZ43" s="2"/>
+      <c r="IA43" s="2"/>
     </row>
-    <row r="44" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>181</v>
       </c>
@@ -9403,75 +9535,69 @@
       <c r="Q44" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R44" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DO44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ED44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EE44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EF44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DS44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EI44" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="EJ44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EL44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EM44" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="EO44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO44" s="2"/>
-      <c r="FP44" s="2"/>
-      <c r="FQ44" s="2"/>
-      <c r="FR44" s="2"/>
-      <c r="FS44" s="2"/>
-      <c r="FT44" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="EU44" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU44" s="2"/>
       <c r="FV44" s="2"/>
       <c r="FW44" s="2"/>
@@ -9525,8 +9651,14 @@
       <c r="HS44" s="2"/>
       <c r="HT44" s="2"/>
       <c r="HU44" s="2"/>
+      <c r="HV44" s="2"/>
+      <c r="HW44" s="2"/>
+      <c r="HX44" s="2"/>
+      <c r="HY44" s="2"/>
+      <c r="HZ44" s="2"/>
+      <c r="IA44" s="2"/>
     </row>
-    <row r="45" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>181</v>
       </c>
@@ -9575,51 +9707,45 @@
       <c r="Q45" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R45" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="CA45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DB45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EJ45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EK45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EL45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EM45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EN45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO45" s="2"/>
-      <c r="FP45" s="2"/>
-      <c r="FQ45" s="2"/>
-      <c r="FR45" s="2"/>
-      <c r="FS45" s="2"/>
-      <c r="FT45" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EO45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EP45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EQ45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ES45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET45" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU45" s="2"/>
       <c r="FV45" s="2"/>
       <c r="FW45" s="2"/>
@@ -9673,8 +9799,14 @@
       <c r="HS45" s="2"/>
       <c r="HT45" s="2"/>
       <c r="HU45" s="2"/>
+      <c r="HV45" s="2"/>
+      <c r="HW45" s="2"/>
+      <c r="HX45" s="2"/>
+      <c r="HY45" s="2"/>
+      <c r="HZ45" s="2"/>
+      <c r="IA45" s="2"/>
     </row>
-    <row r="46" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>181</v>
       </c>
@@ -9723,81 +9855,72 @@
       <c r="Q46" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R46" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AV46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CR46" s="2" t="s">
+      <c r="BB46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CT46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="DG46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DP46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EA46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EP46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EQ46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ER46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ES46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO46" s="2"/>
-      <c r="FP46" s="2"/>
-      <c r="FQ46" s="2"/>
-      <c r="FR46" s="2"/>
-      <c r="FS46" s="2"/>
-      <c r="FT46" s="2"/>
+      <c r="CV46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DS46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EC46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EG46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EO46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EW46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY46" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU46" s="2"/>
       <c r="FV46" s="2"/>
       <c r="FW46" s="2"/>
@@ -9851,8 +9974,14 @@
       <c r="HS46" s="2"/>
       <c r="HT46" s="2"/>
       <c r="HU46" s="2"/>
+      <c r="HV46" s="2"/>
+      <c r="HW46" s="2"/>
+      <c r="HX46" s="2"/>
+      <c r="HY46" s="2"/>
+      <c r="HZ46" s="2"/>
+      <c r="IA46" s="2"/>
     </row>
-    <row r="47" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>181</v>
       </c>
@@ -9901,63 +10030,57 @@
       <c r="Q47" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R47" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AK47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CX47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CV47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DM47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EG47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="ET47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EU47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EV47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EW47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EX47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO47" s="2"/>
-      <c r="FP47" s="2"/>
-      <c r="FQ47" s="2"/>
-      <c r="FR47" s="2"/>
-      <c r="FS47" s="2"/>
-      <c r="FT47" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="DS47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EM47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EO47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EZ47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FB47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FD47" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU47" s="2"/>
       <c r="FV47" s="2"/>
       <c r="FW47" s="2"/>
@@ -10011,8 +10134,14 @@
       <c r="HS47" s="2"/>
       <c r="HT47" s="2"/>
       <c r="HU47" s="2"/>
+      <c r="HV47" s="2"/>
+      <c r="HW47" s="2"/>
+      <c r="HX47" s="2"/>
+      <c r="HY47" s="2"/>
+      <c r="HZ47" s="2"/>
+      <c r="IA47" s="2"/>
     </row>
-    <row r="48" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>181</v>
       </c>
@@ -10061,66 +10190,60 @@
       <c r="Q48" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R48" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>28</v>
+      <c r="AA48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AK48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT48" s="2" t="s">
+      <c r="AP48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DM48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="ED48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EU48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EY48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EZ48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO48" s="2"/>
-      <c r="FP48" s="2"/>
-      <c r="FQ48" s="2"/>
-      <c r="FR48" s="2"/>
-      <c r="FS48" s="2"/>
-      <c r="FT48" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="DS48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EJ48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EO48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FE48" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU48" s="2"/>
       <c r="FV48" s="2"/>
       <c r="FW48" s="2"/>
@@ -10174,8 +10297,14 @@
       <c r="HS48" s="2"/>
       <c r="HT48" s="2"/>
       <c r="HU48" s="2"/>
+      <c r="HV48" s="2"/>
+      <c r="HW48" s="2"/>
+      <c r="HX48" s="2"/>
+      <c r="HY48" s="2"/>
+      <c r="HZ48" s="2"/>
+      <c r="IA48" s="2"/>
     </row>
-    <row r="49" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>181</v>
       </c>
@@ -10224,27 +10353,21 @@
       <c r="Q49" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R49" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DJ49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FA49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO49" s="2"/>
-      <c r="FP49" s="2"/>
-      <c r="FQ49" s="2"/>
-      <c r="FR49" s="2"/>
-      <c r="FS49" s="2"/>
-      <c r="FT49" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DP49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FG49" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU49" s="2"/>
       <c r="FV49" s="2"/>
       <c r="FW49" s="2"/>
@@ -10298,8 +10421,14 @@
       <c r="HS49" s="2"/>
       <c r="HT49" s="2"/>
       <c r="HU49" s="2"/>
+      <c r="HV49" s="2"/>
+      <c r="HW49" s="2"/>
+      <c r="HX49" s="2"/>
+      <c r="HY49" s="2"/>
+      <c r="HZ49" s="2"/>
+      <c r="IA49" s="2"/>
     </row>
-    <row r="50" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>181</v>
       </c>
@@ -10348,60 +10477,54 @@
       <c r="Q50" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="R50" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V50" s="2" t="s">
         <v>61</v>
       </c>
       <c r="X50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EI50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FB50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FC50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO50" s="2"/>
-      <c r="FP50" s="2"/>
-      <c r="FQ50" s="2"/>
-      <c r="FR50" s="2"/>
-      <c r="FS50" s="2"/>
-      <c r="FT50" s="2"/>
+      <c r="AA50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DS50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EO50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FI50" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="FU50" s="2"/>
       <c r="FV50" s="2"/>
       <c r="FW50" s="2"/>
@@ -10455,8 +10578,14 @@
       <c r="HS50" s="2"/>
       <c r="HT50" s="2"/>
       <c r="HU50" s="2"/>
+      <c r="HV50" s="2"/>
+      <c r="HW50" s="2"/>
+      <c r="HX50" s="2"/>
+      <c r="HY50" s="2"/>
+      <c r="HZ50" s="2"/>
+      <c r="IA50" s="2"/>
     </row>
-    <row r="51" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -10464,7 +10593,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
@@ -10492,7 +10621,7 @@
         <v>74</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>49</v>
@@ -10506,66 +10635,60 @@
       <c r="Q51" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="V51" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="X51" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AK51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR51" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AS51" s="6" t="s">
-        <v>482</v>
+      <c r="AP51" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="AT51" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AU51" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AW51" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="AX51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BB51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BE51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BG51" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="BH51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY51" s="6" t="s">
+      <c r="BJ51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BK51" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="BN51" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="CW51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="ER51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="ES51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="EU51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="FO51" s="2"/>
-      <c r="FP51" s="2"/>
-      <c r="FQ51" s="2"/>
-      <c r="FR51" s="2"/>
-      <c r="FS51" s="2"/>
-      <c r="FT51" s="2"/>
+      <c r="CY51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="EX51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="EY51" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="FU51" s="2"/>
       <c r="FV51" s="2"/>
       <c r="FW51" s="2"/>
@@ -10619,8 +10742,14 @@
       <c r="HS51" s="2"/>
       <c r="HT51" s="2"/>
       <c r="HU51" s="2"/>
+      <c r="HV51" s="2"/>
+      <c r="HW51" s="2"/>
+      <c r="HX51" s="2"/>
+      <c r="HY51" s="2"/>
+      <c r="HZ51" s="2"/>
+      <c r="IA51" s="2"/>
     </row>
-    <row r="52" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -10628,7 +10757,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
@@ -10670,54 +10799,48 @@
       <c r="Q52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="X52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="EU52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="FO52" s="2"/>
-      <c r="FP52" s="2"/>
-      <c r="FQ52" s="2"/>
-      <c r="FR52" s="2"/>
-      <c r="FS52" s="2"/>
-      <c r="FT52" s="2"/>
+      <c r="V52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DM52" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="FU52" s="2"/>
       <c r="FV52" s="2"/>
       <c r="FW52" s="2"/>
@@ -10771,14 +10894,14 @@
       <c r="HS52" s="2"/>
       <c r="HT52" s="2"/>
       <c r="HU52" s="2"/>
+      <c r="HV52" s="2"/>
+      <c r="HW52" s="2"/>
+      <c r="HX52" s="2"/>
+      <c r="HY52" s="2"/>
+      <c r="HZ52" s="2"/>
+      <c r="IA52" s="2"/>
     </row>
-    <row r="53" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="FO53" s="2"/>
-      <c r="FP53" s="2"/>
-      <c r="FQ53" s="2"/>
-      <c r="FR53" s="2"/>
-      <c r="FS53" s="2"/>
-      <c r="FT53" s="2"/>
+    <row r="53" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="FU53" s="2"/>
       <c r="FV53" s="2"/>
       <c r="FW53" s="2"/>
@@ -10832,17 +10955,23 @@
       <c r="HS53" s="2"/>
       <c r="HT53" s="2"/>
       <c r="HU53" s="2"/>
+      <c r="HV53" s="2"/>
+      <c r="HW53" s="2"/>
+      <c r="HX53" s="2"/>
+      <c r="HY53" s="2"/>
+      <c r="HZ53" s="2"/>
+      <c r="IA53" s="2"/>
     </row>
-    <row r="54" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebooks/ITPR1/input/ITPR1_SCA29_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_SCA29_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37321B-B25F-774B-9201-F982C10827FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36BE1D-D059-604D-BB3D-8A118C18D3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="6720" windowWidth="37640" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="5680" windowWidth="36540" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="488">
   <si>
     <t>PMID</t>
   </si>
@@ -913,15 +913,9 @@
     <t>Diffuse cerebellar atrophy</t>
   </si>
   <si>
-    <t>Progressive</t>
-  </si>
-  <si>
     <t>Persistent head lag</t>
   </si>
   <si>
-    <t>Difficulty walking</t>
-  </si>
-  <si>
     <t>Action tremor</t>
   </si>
   <si>
@@ -1309,15 +1303,9 @@
     <t>HP:0100275</t>
   </si>
   <si>
-    <t>HP:0003676</t>
-  </si>
-  <si>
     <t>HP:0032988</t>
   </si>
   <si>
-    <t>HP:0002355</t>
-  </si>
-  <si>
     <t>HP:0002345</t>
   </si>
   <si>
@@ -1453,10 +1441,6 @@
     <t>P2Y4M</t>
   </si>
   <si>
-    <t>P1Y
-na</t>
-  </si>
-  <si>
     <t>Premature birth</t>
   </si>
   <si>
@@ -1464,6 +1448,42 @@
   </si>
   <si>
     <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Deeply set eye</t>
+  </si>
+  <si>
+    <t>HP:0000490</t>
+  </si>
+  <si>
+    <t>Prominent nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0000426</t>
+  </si>
+  <si>
+    <t>Depressed nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0005280</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Hypertelorism</t>
+  </si>
+  <si>
+    <t>HP:0000316</t>
+  </si>
+  <si>
+    <t>Intellectual disability, severe</t>
+  </si>
+  <si>
+    <t>HP:0010864</t>
   </si>
 </sst>
 </file>
@@ -1841,12 +1861,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IA63"/>
+  <dimension ref="A1:HU63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1879,7 @@
     <col min="6" max="6" width="48.83203125" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="12" width="26.5" style="2" customWidth="1"/>
@@ -1868,24 +1888,15 @@
     <col min="15" max="15" width="9.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
-    <col min="18" max="35" width="12.6640625" style="2"/>
-    <col min="36" max="36" width="21.1640625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="21.6640625" style="2" customWidth="1"/>
-    <col min="38" max="54" width="12.6640625" style="2"/>
-    <col min="56" max="71" width="12.6640625" style="2"/>
-    <col min="73" max="133" width="12.6640625" style="2"/>
-    <col min="135" max="140" width="12.6640625" style="2"/>
-    <col min="142" max="143" width="12.6640625" style="2"/>
-    <col min="145" max="151" width="12.6640625" style="2"/>
-    <col min="153" max="156" width="12.6640625" style="2"/>
-    <col min="158" max="161" width="12.6640625" style="2"/>
-    <col min="163" max="165" width="12.6640625" style="2"/>
-    <col min="167" max="176" width="12.6640625" style="2"/>
-    <col min="177" max="235" width="12.6640625" style="1"/>
-    <col min="236" max="16384" width="12.6640625" style="2"/>
+    <col min="18" max="40" width="12.6640625" style="2"/>
+    <col min="41" max="41" width="16.1640625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="13.83203125" style="2" customWidth="1"/>
+    <col min="43" max="171" width="12.6640625" style="2"/>
+    <col min="172" max="229" width="12.6640625" style="1"/>
+    <col min="230" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1947,383 +1958,401 @@
         <v>66</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BX1" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EO1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="ET1" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="EU1" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="EV1" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="EW1" s="2" t="s">
         <v>312</v>
       </c>
@@ -2336,63 +2365,60 @@
       <c r="EZ1" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="FA1" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="FB1" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="FC1" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="FD1" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="FE1" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="FF1" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="FG1" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="FH1" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="FI1" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="FJ1" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="FK1" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="FL1" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="FM1" s="2" t="s">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="FN1" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="FO1" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="FP1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
       <c r="FW1" s="2"/>
       <c r="FX1" s="2"/>
       <c r="FY1" s="2"/>
@@ -2444,14 +2470,8 @@
       <c r="HS1" s="2"/>
       <c r="HT1" s="2"/>
       <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
     </row>
-    <row r="2" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2504,406 +2524,427 @@
         <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CU2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="DR2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU2" s="2" t="s">
+      <c r="DS2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="ER2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="EX2" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="EW2" s="2" t="s">
+      <c r="EY2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="EX2" s="2" t="s">
+      <c r="EZ2" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="EY2" s="2" t="s">
+      <c r="FA2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="EZ2" s="2" t="s">
+      <c r="FB2" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="FC2" s="2" t="s">
         <v>449</v>
@@ -2914,23 +2955,29 @@
       <c r="FE2" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="FF2" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="FG2" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="FJ2" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>459</v>
+        <v>65</v>
       </c>
       <c r="FN2" s="2" t="s">
         <v>460</v>
@@ -2939,26 +2986,14 @@
         <v>461</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="FQ2" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="FR2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="FS2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="FT2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="FU2" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="FV2" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2"/>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2"/>
       <c r="FW2" s="2"/>
       <c r="FX2" s="2"/>
       <c r="FY2" s="2"/>
@@ -3010,14 +3045,8 @@
       <c r="HS2" s="2"/>
       <c r="HT2" s="2"/>
       <c r="HU2" s="2"/>
-      <c r="HV2" s="2"/>
-      <c r="HW2" s="2"/>
-      <c r="HX2" s="2"/>
-      <c r="HY2" s="2"/>
-      <c r="HZ2" s="2"/>
-      <c r="IA2" s="2"/>
     </row>
-    <row r="3" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -3052,7 +3081,7 @@
         <v>80</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>81</v>
@@ -3075,51 +3104,56 @@
       <c r="T3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="X3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="DJ3" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="AI3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="FP3" s="2"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3" s="2"/>
+      <c r="FS3" s="2"/>
+      <c r="FT3" s="2"/>
       <c r="FU3" s="2"/>
       <c r="FV3" s="2"/>
       <c r="FW3" s="2"/>
@@ -3173,14 +3207,8 @@
       <c r="HS3" s="2"/>
       <c r="HT3" s="2"/>
       <c r="HU3" s="2"/>
-      <c r="HV3" s="2"/>
-      <c r="HW3" s="2"/>
-      <c r="HX3" s="2"/>
-      <c r="HY3" s="2"/>
-      <c r="HZ3" s="2"/>
-      <c r="IA3" s="2"/>
     </row>
-    <row r="4" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3235,48 +3263,53 @@
       <c r="S4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ4" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
       <c r="FU4" s="2"/>
       <c r="FV4" s="2"/>
       <c r="FW4" s="2"/>
@@ -3330,14 +3363,8 @@
       <c r="HS4" s="2"/>
       <c r="HT4" s="2"/>
       <c r="HU4" s="2"/>
-      <c r="HV4" s="2"/>
-      <c r="HW4" s="2"/>
-      <c r="HX4" s="2"/>
-      <c r="HY4" s="2"/>
-      <c r="HZ4" s="2"/>
-      <c r="IA4" s="2"/>
     </row>
-    <row r="5" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -3392,51 +3419,54 @@
       <c r="S5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>61</v>
+      <c r="AE5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AR5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AX5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="FU5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FV5" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="FP5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FQ5" s="2"/>
+      <c r="FR5" s="2"/>
+      <c r="FS5" s="2"/>
+      <c r="FT5" s="2"/>
+      <c r="FU5" s="2"/>
+      <c r="FV5" s="2"/>
       <c r="FW5" s="2"/>
       <c r="FX5" s="2"/>
       <c r="FY5" s="2"/>
@@ -3488,14 +3518,8 @@
       <c r="HS5" s="2"/>
       <c r="HT5" s="2"/>
       <c r="HU5" s="2"/>
-      <c r="HV5" s="2"/>
-      <c r="HW5" s="2"/>
-      <c r="HX5" s="2"/>
-      <c r="HY5" s="2"/>
-      <c r="HZ5" s="2"/>
-      <c r="IA5" s="2"/>
     </row>
-    <row r="6" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -3550,45 +3574,48 @@
       <c r="S6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="AE6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FU6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FV6" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="AK6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="2"/>
+      <c r="FS6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6" s="2"/>
+      <c r="FV6" s="2"/>
       <c r="FW6" s="2"/>
       <c r="FX6" s="2"/>
       <c r="FY6" s="2"/>
@@ -3640,14 +3667,8 @@
       <c r="HS6" s="2"/>
       <c r="HT6" s="2"/>
       <c r="HU6" s="2"/>
-      <c r="HV6" s="2"/>
-      <c r="HW6" s="2"/>
-      <c r="HX6" s="2"/>
-      <c r="HY6" s="2"/>
-      <c r="HZ6" s="2"/>
-      <c r="IA6" s="2"/>
     </row>
-    <row r="7" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3705,40 +3726,28 @@
       <c r="T7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>474</v>
+      <c r="Y7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AE7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AM7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BG7" s="2" t="s">
@@ -3753,6 +3762,23 @@
       <c r="BJ7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BK7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP7" s="2"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7" s="2"/>
+      <c r="FS7" s="2"/>
+      <c r="FT7" s="2"/>
       <c r="FU7" s="2"/>
       <c r="FV7" s="2"/>
       <c r="FW7" s="2"/>
@@ -3806,14 +3832,8 @@
       <c r="HS7" s="2"/>
       <c r="HT7" s="2"/>
       <c r="HU7" s="2"/>
-      <c r="HV7" s="2"/>
-      <c r="HW7" s="2"/>
-      <c r="HX7" s="2"/>
-      <c r="HY7" s="2"/>
-      <c r="HZ7" s="2"/>
-      <c r="IA7" s="2"/>
     </row>
-    <row r="8" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -3868,68 +3888,56 @@
       <c r="S8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AI8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AM8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AO8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AP8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AS8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AV8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL8" s="2" t="s">
+      <c r="BA8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BN8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BO8" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP8" s="2" t="s">
         <v>72</v>
@@ -3938,14 +3946,31 @@
         <v>72</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BS8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ8" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP8" s="2"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="2"/>
+      <c r="FS8" s="2"/>
+      <c r="FT8" s="2"/>
       <c r="FU8" s="2"/>
       <c r="FV8" s="2"/>
       <c r="FW8" s="2"/>
@@ -3999,14 +4024,8 @@
       <c r="HS8" s="2"/>
       <c r="HT8" s="2"/>
       <c r="HU8" s="2"/>
-      <c r="HV8" s="2"/>
-      <c r="HW8" s="2"/>
-      <c r="HX8" s="2"/>
-      <c r="HY8" s="2"/>
-      <c r="HZ8" s="2"/>
-      <c r="IA8" s="2"/>
     </row>
-    <row r="9" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -4061,84 +4080,89 @@
       <c r="S9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AM9" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AO9" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AP9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AT9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ9" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BS9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ9" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="BT9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP9" s="2"/>
+      <c r="FQ9" s="2"/>
+      <c r="FR9" s="2"/>
+      <c r="FS9" s="2"/>
+      <c r="FT9" s="2"/>
       <c r="FU9" s="2"/>
       <c r="FV9" s="2"/>
       <c r="FW9" s="2"/>
@@ -4192,14 +4216,8 @@
       <c r="HS9" s="2"/>
       <c r="HT9" s="2"/>
       <c r="HU9" s="2"/>
-      <c r="HV9" s="2"/>
-      <c r="HW9" s="2"/>
-      <c r="HX9" s="2"/>
-      <c r="HY9" s="2"/>
-      <c r="HZ9" s="2"/>
-      <c r="IA9" s="2"/>
     </row>
-    <row r="10" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -4254,84 +4272,89 @@
       <c r="S10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AM10" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AO10" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="AP10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AQ10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AT10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ10" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BS10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ10" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP10" s="2"/>
+      <c r="FQ10" s="2"/>
+      <c r="FR10" s="2"/>
+      <c r="FS10" s="2"/>
+      <c r="FT10" s="2"/>
       <c r="FU10" s="2"/>
       <c r="FV10" s="2"/>
       <c r="FW10" s="2"/>
@@ -4385,14 +4408,8 @@
       <c r="HS10" s="2"/>
       <c r="HT10" s="2"/>
       <c r="HU10" s="2"/>
-      <c r="HV10" s="2"/>
-      <c r="HW10" s="2"/>
-      <c r="HX10" s="2"/>
-      <c r="HY10" s="2"/>
-      <c r="HZ10" s="2"/>
-      <c r="IA10" s="2"/>
     </row>
-    <row r="11" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -4447,68 +4464,56 @@
       <c r="S11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AI11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AM11" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AO11" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AP11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AV11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL11" s="2" t="s">
+      <c r="AX11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BO11" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP11" s="2" t="s">
         <v>72</v>
@@ -4517,14 +4522,31 @@
         <v>61</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ11" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP11" s="2"/>
+      <c r="FQ11" s="2"/>
+      <c r="FR11" s="2"/>
+      <c r="FS11" s="2"/>
+      <c r="FT11" s="2"/>
       <c r="FU11" s="2"/>
       <c r="FV11" s="2"/>
       <c r="FW11" s="2"/>
@@ -4578,14 +4600,8 @@
       <c r="HS11" s="2"/>
       <c r="HT11" s="2"/>
       <c r="HU11" s="2"/>
-      <c r="HV11" s="2"/>
-      <c r="HW11" s="2"/>
-      <c r="HX11" s="2"/>
-      <c r="HY11" s="2"/>
-      <c r="HZ11" s="2"/>
-      <c r="IA11" s="2"/>
     </row>
-    <row r="12" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -4640,50 +4656,38 @@
       <c r="S12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>61</v>
+      <c r="Y12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AQ12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BI12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BM12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BO12" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP12" s="2" t="s">
         <v>72</v>
@@ -4691,15 +4695,32 @@
       <c r="BQ12" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="BR12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BS12" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BT12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BU12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ12" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP12" s="2"/>
+      <c r="FQ12" s="2"/>
+      <c r="FR12" s="2"/>
+      <c r="FS12" s="2"/>
+      <c r="FT12" s="2"/>
       <c r="FU12" s="2"/>
       <c r="FV12" s="2"/>
       <c r="FW12" s="2"/>
@@ -4753,14 +4774,8 @@
       <c r="HS12" s="2"/>
       <c r="HT12" s="2"/>
       <c r="HU12" s="2"/>
-      <c r="HV12" s="2"/>
-      <c r="HW12" s="2"/>
-      <c r="HX12" s="2"/>
-      <c r="HY12" s="2"/>
-      <c r="HZ12" s="2"/>
-      <c r="IA12" s="2"/>
     </row>
-    <row r="13" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -4815,66 +4830,71 @@
       <c r="S13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>61</v>
+      <c r="Y13" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AQ13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BI13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BM13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ13" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BS13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BT13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BU13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ13" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP13" s="2"/>
+      <c r="FQ13" s="2"/>
+      <c r="FR13" s="2"/>
+      <c r="FS13" s="2"/>
+      <c r="FT13" s="2"/>
       <c r="FU13" s="2"/>
       <c r="FV13" s="2"/>
       <c r="FW13" s="2"/>
@@ -4928,14 +4948,8 @@
       <c r="HS13" s="2"/>
       <c r="HT13" s="2"/>
       <c r="HU13" s="2"/>
-      <c r="HV13" s="2"/>
-      <c r="HW13" s="2"/>
-      <c r="HX13" s="2"/>
-      <c r="HY13" s="2"/>
-      <c r="HZ13" s="2"/>
-      <c r="IA13" s="2"/>
     </row>
-    <row r="14" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -4990,50 +5004,38 @@
       <c r="S14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>61</v>
+      <c r="Y14" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AQ14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BI14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BM14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BN14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BO14" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP14" s="2" t="s">
         <v>72</v>
@@ -5041,15 +5043,32 @@
       <c r="BQ14" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BR14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BS14" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BT14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BU14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="DJ14" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="BW14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP14" s="2"/>
+      <c r="FQ14" s="2"/>
+      <c r="FR14" s="2"/>
+      <c r="FS14" s="2"/>
+      <c r="FT14" s="2"/>
       <c r="FU14" s="2"/>
       <c r="FV14" s="2"/>
       <c r="FW14" s="2"/>
@@ -5103,14 +5122,8 @@
       <c r="HS14" s="2"/>
       <c r="HT14" s="2"/>
       <c r="HU14" s="2"/>
-      <c r="HV14" s="2"/>
-      <c r="HW14" s="2"/>
-      <c r="HX14" s="2"/>
-      <c r="HY14" s="2"/>
-      <c r="HZ14" s="2"/>
-      <c r="IA14" s="2"/>
     </row>
-    <row r="15" spans="1:235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -5165,66 +5178,71 @@
       <c r="S15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>72</v>
+      <c r="Z15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AQ15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BI15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BM15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BN15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="BO15" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BP15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BQ15" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="BR15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="BS15" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BT15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BU15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ15" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="BW15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP15" s="2"/>
+      <c r="FQ15" s="2"/>
+      <c r="FR15" s="2"/>
+      <c r="FS15" s="2"/>
+      <c r="FT15" s="2"/>
       <c r="FU15" s="2"/>
       <c r="FV15" s="2"/>
       <c r="FW15" s="2"/>
@@ -5278,14 +5296,8 @@
       <c r="HS15" s="2"/>
       <c r="HT15" s="2"/>
       <c r="HU15" s="2"/>
-      <c r="HV15" s="2"/>
-      <c r="HW15" s="2"/>
-      <c r="HX15" s="2"/>
-      <c r="HY15" s="2"/>
-      <c r="HZ15" s="2"/>
-      <c r="IA15" s="2"/>
     </row>
-    <row r="16" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>125</v>
       </c>
@@ -5340,49 +5352,40 @@
       <c r="S16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="2" t="s">
+      <c r="U16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BV16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BX16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CA16" s="2" t="s">
@@ -5395,9 +5398,6 @@
         <v>61</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CE16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CF16" s="2" t="s">
@@ -5409,24 +5409,24 @@
       <c r="CH16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CI16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CJ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CK16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CL16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="CN16" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="CO16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="CP16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CR16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CS16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CT16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5442,24 +5442,41 @@
       <c r="CY16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CZ16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DA16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DB16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="DC16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DD16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="DF16" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="DE16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DG16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DK16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP16" s="2"/>
+      <c r="FQ16" s="2"/>
+      <c r="FR16" s="2"/>
+      <c r="FS16" s="2"/>
+      <c r="FT16" s="2"/>
       <c r="FU16" s="2"/>
       <c r="FV16" s="2"/>
       <c r="FW16" s="2"/>
@@ -5513,14 +5530,8 @@
       <c r="HS16" s="2"/>
       <c r="HT16" s="2"/>
       <c r="HU16" s="2"/>
-      <c r="HV16" s="2"/>
-      <c r="HW16" s="2"/>
-      <c r="HX16" s="2"/>
-      <c r="HY16" s="2"/>
-      <c r="HZ16" s="2"/>
-      <c r="IA16" s="2"/>
     </row>
-    <row r="17" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>125</v>
       </c>
@@ -5575,55 +5586,43 @@
       <c r="S17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BX17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CA17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CG17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CH17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CI17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CK17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CL17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CM17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CP17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CB17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CE17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CR17" s="2" t="s">
@@ -5632,7 +5631,7 @@
       <c r="CS17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CT17" s="2" t="s">
+      <c r="CU17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CV17" s="2" t="s">
@@ -5641,13 +5640,13 @@
       <c r="CW17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CY17" s="2" t="s">
+      <c r="DA17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DB17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="DD17" s="2" t="s">
+      <c r="DC17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DE17" s="2" t="s">
@@ -5656,6 +5655,23 @@
       <c r="DF17" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="DH17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DM17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP17" s="2"/>
+      <c r="FQ17" s="2"/>
+      <c r="FR17" s="2"/>
+      <c r="FS17" s="2"/>
+      <c r="FT17" s="2"/>
       <c r="FU17" s="2"/>
       <c r="FV17" s="2"/>
       <c r="FW17" s="2"/>
@@ -5709,14 +5725,8 @@
       <c r="HS17" s="2"/>
       <c r="HT17" s="2"/>
       <c r="HU17" s="2"/>
-      <c r="HV17" s="2"/>
-      <c r="HW17" s="2"/>
-      <c r="HX17" s="2"/>
-      <c r="HY17" s="2"/>
-      <c r="HZ17" s="2"/>
-      <c r="IA17" s="2"/>
     </row>
-    <row r="18" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -5771,60 +5781,65 @@
       <c r="S18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CA18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CB18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CE18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CF18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CH18" s="2" t="s">
+      <c r="CG18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CO18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CP18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CQ18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD18" s="2" t="s">
+      <c r="CR18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DC18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DF18" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DH18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP18" s="2"/>
+      <c r="FQ18" s="2"/>
+      <c r="FR18" s="2"/>
+      <c r="FS18" s="2"/>
+      <c r="FT18" s="2"/>
       <c r="FU18" s="2"/>
       <c r="FV18" s="2"/>
       <c r="FW18" s="2"/>
@@ -5878,14 +5893,8 @@
       <c r="HS18" s="2"/>
       <c r="HT18" s="2"/>
       <c r="HU18" s="2"/>
-      <c r="HV18" s="2"/>
-      <c r="HW18" s="2"/>
-      <c r="HX18" s="2"/>
-      <c r="HY18" s="2"/>
-      <c r="HZ18" s="2"/>
-      <c r="IA18" s="2"/>
     </row>
-    <row r="19" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
@@ -5940,39 +5949,113 @@
       <c r="S19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BM19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CV19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DH19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DN19" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AR19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CF19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CL19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CN19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CO19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DO19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP19" s="2"/>
+      <c r="FQ19" s="2"/>
+      <c r="FR19" s="2"/>
+      <c r="FS19" s="2"/>
+      <c r="FT19" s="2"/>
       <c r="FU19" s="2"/>
       <c r="FV19" s="2"/>
       <c r="FW19" s="2"/>
@@ -6026,14 +6109,8 @@
       <c r="HS19" s="2"/>
       <c r="HT19" s="2"/>
       <c r="HU19" s="2"/>
-      <c r="HV19" s="2"/>
-      <c r="HW19" s="2"/>
-      <c r="HX19" s="2"/>
-      <c r="HY19" s="2"/>
-      <c r="HZ19" s="2"/>
-      <c r="IA19" s="2"/>
     </row>
-    <row r="20" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>128</v>
       </c>
@@ -6088,39 +6165,113 @@
       <c r="S20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BM20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CV20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DG20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DH20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI20" s="2" t="s">
+      <c r="AR20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CL20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CN20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CO20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DO20" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="DP20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP20" s="2"/>
+      <c r="FQ20" s="2"/>
+      <c r="FR20" s="2"/>
+      <c r="FS20" s="2"/>
+      <c r="FT20" s="2"/>
       <c r="FU20" s="2"/>
       <c r="FV20" s="2"/>
       <c r="FW20" s="2"/>
@@ -6174,14 +6325,8 @@
       <c r="HS20" s="2"/>
       <c r="HT20" s="2"/>
       <c r="HU20" s="2"/>
-      <c r="HV20" s="2"/>
-      <c r="HW20" s="2"/>
-      <c r="HX20" s="2"/>
-      <c r="HY20" s="2"/>
-      <c r="HZ20" s="2"/>
-      <c r="IA20" s="2"/>
     </row>
-    <row r="21" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -6236,27 +6381,104 @@
       <c r="S21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DG21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DH21" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CF21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CJ21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CK21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CL21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CO21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DO21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP21" s="2"/>
+      <c r="FQ21" s="2"/>
+      <c r="FR21" s="2"/>
+      <c r="FS21" s="2"/>
+      <c r="FT21" s="2"/>
       <c r="FU21" s="2"/>
       <c r="FV21" s="2"/>
       <c r="FW21" s="2"/>
@@ -6310,14 +6532,8 @@
       <c r="HS21" s="2"/>
       <c r="HT21" s="2"/>
       <c r="HU21" s="2"/>
-      <c r="HV21" s="2"/>
-      <c r="HW21" s="2"/>
-      <c r="HX21" s="2"/>
-      <c r="HY21" s="2"/>
-      <c r="HZ21" s="2"/>
-      <c r="IA21" s="2"/>
     </row>
-    <row r="22" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>137</v>
       </c>
@@ -6372,33 +6588,68 @@
       <c r="S22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA22" s="2" t="s">
-        <v>28</v>
+      <c r="AE22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AN22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BG22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI22" s="2" t="s">
-        <v>72</v>
+      <c r="AO22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="BM22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="CG22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DR22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DT22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DY22" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CQ22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EB22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ED22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EE22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP22" s="2"/>
+      <c r="FQ22" s="2"/>
+      <c r="FR22" s="2"/>
+      <c r="FS22" s="2"/>
+      <c r="FT22" s="2"/>
       <c r="FU22" s="2"/>
       <c r="FV22" s="2"/>
       <c r="FW22" s="2"/>
@@ -6452,14 +6703,8 @@
       <c r="HS22" s="2"/>
       <c r="HT22" s="2"/>
       <c r="HU22" s="2"/>
-      <c r="HV22" s="2"/>
-      <c r="HW22" s="2"/>
-      <c r="HX22" s="2"/>
-      <c r="HY22" s="2"/>
-      <c r="HZ22" s="2"/>
-      <c r="IA22" s="2"/>
     </row>
-    <row r="23" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -6514,36 +6759,74 @@
       <c r="S23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>28</v>
+      <c r="AE23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DP23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DQ23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DR23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BT23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DY23" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="DZ23" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="EA23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EC23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ED23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EE23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EF23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP23" s="2"/>
+      <c r="FQ23" s="2"/>
+      <c r="FR23" s="2"/>
+      <c r="FS23" s="2"/>
+      <c r="FT23" s="2"/>
       <c r="FU23" s="2"/>
       <c r="FV23" s="2"/>
       <c r="FW23" s="2"/>
@@ -6597,14 +6880,8 @@
       <c r="HS23" s="2"/>
       <c r="HT23" s="2"/>
       <c r="HU23" s="2"/>
-      <c r="HV23" s="2"/>
-      <c r="HW23" s="2"/>
-      <c r="HX23" s="2"/>
-      <c r="HY23" s="2"/>
-      <c r="HZ23" s="2"/>
-      <c r="IA23" s="2"/>
     </row>
-    <row r="24" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>137</v>
       </c>
@@ -6659,12 +6936,53 @@
       <c r="S24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DR24" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="AE24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP24" s="2"/>
+      <c r="FQ24" s="2"/>
+      <c r="FR24" s="2"/>
+      <c r="FS24" s="2"/>
+      <c r="FT24" s="2"/>
       <c r="FU24" s="2"/>
       <c r="FV24" s="2"/>
       <c r="FW24" s="2"/>
@@ -6718,14 +7036,8 @@
       <c r="HS24" s="2"/>
       <c r="HT24" s="2"/>
       <c r="HU24" s="2"/>
-      <c r="HV24" s="2"/>
-      <c r="HW24" s="2"/>
-      <c r="HX24" s="2"/>
-      <c r="HY24" s="2"/>
-      <c r="HZ24" s="2"/>
-      <c r="IA24" s="2"/>
     </row>
-    <row r="25" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>137</v>
       </c>
@@ -6780,15 +7092,53 @@
       <c r="S25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DR25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AE25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ED25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP25" s="2"/>
+      <c r="FQ25" s="2"/>
+      <c r="FR25" s="2"/>
+      <c r="FS25" s="2"/>
+      <c r="FT25" s="2"/>
       <c r="FU25" s="2"/>
       <c r="FV25" s="2"/>
       <c r="FW25" s="2"/>
@@ -6842,14 +7192,8 @@
       <c r="HS25" s="2"/>
       <c r="HT25" s="2"/>
       <c r="HU25" s="2"/>
-      <c r="HV25" s="2"/>
-      <c r="HW25" s="2"/>
-      <c r="HX25" s="2"/>
-      <c r="HY25" s="2"/>
-      <c r="HZ25" s="2"/>
-      <c r="IA25" s="2"/>
     </row>
-    <row r="26" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -6904,33 +7248,65 @@
       <c r="S26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA26" s="2" t="s">
+      <c r="Y26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="CW26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DR26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DV26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW26" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="BQ26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DF26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP26" s="2"/>
+      <c r="FQ26" s="2"/>
+      <c r="FR26" s="2"/>
+      <c r="FS26" s="2"/>
+      <c r="FT26" s="2"/>
       <c r="FU26" s="2"/>
       <c r="FV26" s="2"/>
       <c r="FW26" s="2"/>
@@ -6984,14 +7360,8 @@
       <c r="HS26" s="2"/>
       <c r="HT26" s="2"/>
       <c r="HU26" s="2"/>
-      <c r="HV26" s="2"/>
-      <c r="HW26" s="2"/>
-      <c r="HX26" s="2"/>
-      <c r="HY26" s="2"/>
-      <c r="HZ26" s="2"/>
-      <c r="IA26" s="2"/>
     </row>
-    <row r="27" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -7046,39 +7416,68 @@
       <c r="S27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>28</v>
+      <c r="Y27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI27" s="2" t="s">
-        <v>72</v>
+        <v>72</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="BM27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="CG27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DR27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DV27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DX27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DY27" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EA27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EE27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP27" s="2"/>
+      <c r="FQ27" s="2"/>
+      <c r="FR27" s="2"/>
+      <c r="FS27" s="2"/>
+      <c r="FT27" s="2"/>
       <c r="FU27" s="2"/>
       <c r="FV27" s="2"/>
       <c r="FW27" s="2"/>
@@ -7132,14 +7531,8 @@
       <c r="HS27" s="2"/>
       <c r="HT27" s="2"/>
       <c r="HU27" s="2"/>
-      <c r="HV27" s="2"/>
-      <c r="HW27" s="2"/>
-      <c r="HX27" s="2"/>
-      <c r="HY27" s="2"/>
-      <c r="HZ27" s="2"/>
-      <c r="IA27" s="2"/>
     </row>
-    <row r="28" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
@@ -7194,36 +7587,68 @@
       <c r="S28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA28" s="2" t="s">
-        <v>28</v>
+      <c r="AE28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AN28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AP28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BI28" s="2" t="s">
+      <c r="AQ28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BM28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="CG28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DR28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DW28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DY28" s="2" t="s">
+      <c r="BQ28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CQ28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="DZ28" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="EA28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EE28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EF28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP28" s="2"/>
+      <c r="FQ28" s="2"/>
+      <c r="FR28" s="2"/>
+      <c r="FS28" s="2"/>
+      <c r="FT28" s="2"/>
       <c r="FU28" s="2"/>
       <c r="FV28" s="2"/>
       <c r="FW28" s="2"/>
@@ -7277,14 +7702,8 @@
       <c r="HS28" s="2"/>
       <c r="HT28" s="2"/>
       <c r="HU28" s="2"/>
-      <c r="HV28" s="2"/>
-      <c r="HW28" s="2"/>
-      <c r="HX28" s="2"/>
-      <c r="HY28" s="2"/>
-      <c r="HZ28" s="2"/>
-      <c r="IA28" s="2"/>
     </row>
-    <row r="29" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -7339,51 +7758,62 @@
       <c r="S29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CY29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK29" s="2" t="s">
+      <c r="V29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EA29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH29" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DS29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP29" s="2"/>
+      <c r="FQ29" s="2"/>
+      <c r="FR29" s="2"/>
+      <c r="FS29" s="2"/>
+      <c r="FT29" s="2"/>
       <c r="FU29" s="2"/>
       <c r="FV29" s="2"/>
       <c r="FW29" s="2"/>
@@ -7437,14 +7867,8 @@
       <c r="HS29" s="2"/>
       <c r="HT29" s="2"/>
       <c r="HU29" s="2"/>
-      <c r="HV29" s="2"/>
-      <c r="HW29" s="2"/>
-      <c r="HX29" s="2"/>
-      <c r="HY29" s="2"/>
-      <c r="HZ29" s="2"/>
-      <c r="IA29" s="2"/>
     </row>
-    <row r="30" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>152</v>
       </c>
@@ -7499,51 +7923,62 @@
       <c r="S30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CY30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DI30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DK30" s="2" t="s">
+      <c r="V30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="EA30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH30" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="DS30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP30" s="2"/>
+      <c r="FQ30" s="2"/>
+      <c r="FR30" s="2"/>
+      <c r="FS30" s="2"/>
+      <c r="FT30" s="2"/>
       <c r="FU30" s="2"/>
       <c r="FV30" s="2"/>
       <c r="FW30" s="2"/>
@@ -7597,14 +8032,8 @@
       <c r="HS30" s="2"/>
       <c r="HT30" s="2"/>
       <c r="HU30" s="2"/>
-      <c r="HV30" s="2"/>
-      <c r="HW30" s="2"/>
-      <c r="HX30" s="2"/>
-      <c r="HY30" s="2"/>
-      <c r="HZ30" s="2"/>
-      <c r="IA30" s="2"/>
     </row>
-    <row r="31" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>152</v>
       </c>
@@ -7659,51 +8088,62 @@
       <c r="S31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>61</v>
+      <c r="V31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AP31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BO31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK31" s="2" t="s">
+      <c r="AU31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EA31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH31" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DS31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP31" s="2"/>
+      <c r="FQ31" s="2"/>
+      <c r="FR31" s="2"/>
+      <c r="FS31" s="2"/>
+      <c r="FT31" s="2"/>
       <c r="FU31" s="2"/>
       <c r="FV31" s="2"/>
       <c r="FW31" s="2"/>
@@ -7757,14 +8197,8 @@
       <c r="HS31" s="2"/>
       <c r="HT31" s="2"/>
       <c r="HU31" s="2"/>
-      <c r="HV31" s="2"/>
-      <c r="HW31" s="2"/>
-      <c r="HX31" s="2"/>
-      <c r="HY31" s="2"/>
-      <c r="HZ31" s="2"/>
-      <c r="IA31" s="2"/>
     </row>
-    <row r="32" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
@@ -7819,54 +8253,65 @@
       <c r="S32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK32" s="2" t="s">
-        <v>61</v>
+      <c r="V32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AP32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK32" s="2" t="s">
+      <c r="AU32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ32" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EA32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH32" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DS32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP32" s="2"/>
+      <c r="FQ32" s="2"/>
+      <c r="FR32" s="2"/>
+      <c r="FS32" s="2"/>
+      <c r="FT32" s="2"/>
       <c r="FU32" s="2"/>
       <c r="FV32" s="2"/>
       <c r="FW32" s="2"/>
@@ -7920,14 +8365,8 @@
       <c r="HS32" s="2"/>
       <c r="HT32" s="2"/>
       <c r="HU32" s="2"/>
-      <c r="HV32" s="2"/>
-      <c r="HW32" s="2"/>
-      <c r="HX32" s="2"/>
-      <c r="HY32" s="2"/>
-      <c r="HZ32" s="2"/>
-      <c r="IA32" s="2"/>
     </row>
-    <row r="33" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
@@ -7982,51 +8421,62 @@
       <c r="S33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK33" s="2" t="s">
+      <c r="V33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EA33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EC33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH33" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DS33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP33" s="2"/>
+      <c r="FQ33" s="2"/>
+      <c r="FR33" s="2"/>
+      <c r="FS33" s="2"/>
+      <c r="FT33" s="2"/>
       <c r="FU33" s="2"/>
       <c r="FV33" s="2"/>
       <c r="FW33" s="2"/>
@@ -8080,14 +8530,8 @@
       <c r="HS33" s="2"/>
       <c r="HT33" s="2"/>
       <c r="HU33" s="2"/>
-      <c r="HV33" s="2"/>
-      <c r="HW33" s="2"/>
-      <c r="HX33" s="2"/>
-      <c r="HY33" s="2"/>
-      <c r="HZ33" s="2"/>
-      <c r="IA33" s="2"/>
     </row>
-    <row r="34" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>152</v>
       </c>
@@ -8142,51 +8586,62 @@
       <c r="S34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DJ34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DK34" s="2" t="s">
+      <c r="V34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="DR34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EA34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EB34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EC34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH34" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="DS34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP34" s="2"/>
+      <c r="FQ34" s="2"/>
+      <c r="FR34" s="2"/>
+      <c r="FS34" s="2"/>
+      <c r="FT34" s="2"/>
       <c r="FU34" s="2"/>
       <c r="FV34" s="2"/>
       <c r="FW34" s="2"/>
@@ -8240,14 +8695,8 @@
       <c r="HS34" s="2"/>
       <c r="HT34" s="2"/>
       <c r="HU34" s="2"/>
-      <c r="HV34" s="2"/>
-      <c r="HW34" s="2"/>
-      <c r="HX34" s="2"/>
-      <c r="HY34" s="2"/>
-      <c r="HZ34" s="2"/>
-      <c r="IA34" s="2"/>
     </row>
-    <row r="35" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
@@ -8302,33 +8751,35 @@
       <c r="S35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>61</v>
+      <c r="Y35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AM35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EE35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EF35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG35" s="2" t="s">
-        <v>72</v>
+      <c r="AR35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU35" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="EH35" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="EI35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP35" s="2"/>
+      <c r="FQ35" s="2"/>
+      <c r="FR35" s="2"/>
+      <c r="FS35" s="2"/>
+      <c r="FT35" s="2"/>
       <c r="FU35" s="2"/>
       <c r="FV35" s="2"/>
       <c r="FW35" s="2"/>
@@ -8382,14 +8833,8 @@
       <c r="HS35" s="2"/>
       <c r="HT35" s="2"/>
       <c r="HU35" s="2"/>
-      <c r="HV35" s="2"/>
-      <c r="HW35" s="2"/>
-      <c r="HX35" s="2"/>
-      <c r="HY35" s="2"/>
-      <c r="HZ35" s="2"/>
-      <c r="IA35" s="2"/>
     </row>
-    <row r="36" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -8444,24 +8889,29 @@
       <c r="S36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI36" s="2" t="s">
-        <v>61</v>
+      <c r="Y36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AM36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG36" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="AR36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP36" s="2"/>
+      <c r="FQ36" s="2"/>
+      <c r="FR36" s="2"/>
+      <c r="FS36" s="2"/>
+      <c r="FT36" s="2"/>
       <c r="FU36" s="2"/>
       <c r="FV36" s="2"/>
       <c r="FW36" s="2"/>
@@ -8515,14 +8965,8 @@
       <c r="HS36" s="2"/>
       <c r="HT36" s="2"/>
       <c r="HU36" s="2"/>
-      <c r="HV36" s="2"/>
-      <c r="HW36" s="2"/>
-      <c r="HX36" s="2"/>
-      <c r="HY36" s="2"/>
-      <c r="HZ36" s="2"/>
-      <c r="IA36" s="2"/>
     </row>
-    <row r="37" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>167</v>
       </c>
@@ -8577,36 +9021,47 @@
       <c r="S37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK37" s="2" t="s">
-        <v>61</v>
+      <c r="Y37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AM37" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AN37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AP37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EH37" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP37" s="2"/>
+      <c r="FQ37" s="2"/>
+      <c r="FR37" s="2"/>
+      <c r="FS37" s="2"/>
+      <c r="FT37" s="2"/>
       <c r="FU37" s="2"/>
       <c r="FV37" s="2"/>
       <c r="FW37" s="2"/>
@@ -8660,14 +9115,8 @@
       <c r="HS37" s="2"/>
       <c r="HT37" s="2"/>
       <c r="HU37" s="2"/>
-      <c r="HV37" s="2"/>
-      <c r="HW37" s="2"/>
-      <c r="HX37" s="2"/>
-      <c r="HY37" s="2"/>
-      <c r="HZ37" s="2"/>
-      <c r="IA37" s="2"/>
     </row>
-    <row r="38" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
@@ -8722,27 +9171,32 @@
       <c r="S38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG38" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP38" s="2"/>
+      <c r="FQ38" s="2"/>
+      <c r="FR38" s="2"/>
+      <c r="FS38" s="2"/>
+      <c r="FT38" s="2"/>
       <c r="FU38" s="2"/>
       <c r="FV38" s="2"/>
       <c r="FW38" s="2"/>
@@ -8796,14 +9250,8 @@
       <c r="HS38" s="2"/>
       <c r="HT38" s="2"/>
       <c r="HU38" s="2"/>
-      <c r="HV38" s="2"/>
-      <c r="HW38" s="2"/>
-      <c r="HX38" s="2"/>
-      <c r="HY38" s="2"/>
-      <c r="HZ38" s="2"/>
-      <c r="IA38" s="2"/>
     </row>
-    <row r="39" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
@@ -8858,33 +9306,35 @@
       <c r="S39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EH39" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="Y39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP39" s="2"/>
+      <c r="FQ39" s="2"/>
+      <c r="FR39" s="2"/>
+      <c r="FS39" s="2"/>
+      <c r="FT39" s="2"/>
       <c r="FU39" s="2"/>
       <c r="FV39" s="2"/>
       <c r="FW39" s="2"/>
@@ -8938,14 +9388,8 @@
       <c r="HS39" s="2"/>
       <c r="HT39" s="2"/>
       <c r="HU39" s="2"/>
-      <c r="HV39" s="2"/>
-      <c r="HW39" s="2"/>
-      <c r="HX39" s="2"/>
-      <c r="HY39" s="2"/>
-      <c r="HZ39" s="2"/>
-      <c r="IA39" s="2"/>
     </row>
-    <row r="40" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>167</v>
       </c>
@@ -9000,21 +9444,26 @@
       <c r="S40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG40" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP40" s="2"/>
+      <c r="FQ40" s="2"/>
+      <c r="FR40" s="2"/>
+      <c r="FS40" s="2"/>
+      <c r="FT40" s="2"/>
       <c r="FU40" s="2"/>
       <c r="FV40" s="2"/>
       <c r="FW40" s="2"/>
@@ -9068,14 +9517,8 @@
       <c r="HS40" s="2"/>
       <c r="HT40" s="2"/>
       <c r="HU40" s="2"/>
-      <c r="HV40" s="2"/>
-      <c r="HW40" s="2"/>
-      <c r="HX40" s="2"/>
-      <c r="HY40" s="2"/>
-      <c r="HZ40" s="2"/>
-      <c r="IA40" s="2"/>
     </row>
-    <row r="41" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -9130,21 +9573,26 @@
       <c r="S41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG41" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP41" s="2"/>
+      <c r="FQ41" s="2"/>
+      <c r="FR41" s="2"/>
+      <c r="FS41" s="2"/>
+      <c r="FT41" s="2"/>
       <c r="FU41" s="2"/>
       <c r="FV41" s="2"/>
       <c r="FW41" s="2"/>
@@ -9198,14 +9646,8 @@
       <c r="HS41" s="2"/>
       <c r="HT41" s="2"/>
       <c r="HU41" s="2"/>
-      <c r="HV41" s="2"/>
-      <c r="HW41" s="2"/>
-      <c r="HX41" s="2"/>
-      <c r="HY41" s="2"/>
-      <c r="HZ41" s="2"/>
-      <c r="IA41" s="2"/>
     </row>
-    <row r="42" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>167</v>
       </c>
@@ -9260,27 +9702,32 @@
       <c r="S42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG42" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP42" s="2"/>
+      <c r="FQ42" s="2"/>
+      <c r="FR42" s="2"/>
+      <c r="FS42" s="2"/>
+      <c r="FT42" s="2"/>
       <c r="FU42" s="2"/>
       <c r="FV42" s="2"/>
       <c r="FW42" s="2"/>
@@ -9334,14 +9781,8 @@
       <c r="HS42" s="2"/>
       <c r="HT42" s="2"/>
       <c r="HU42" s="2"/>
-      <c r="HV42" s="2"/>
-      <c r="HW42" s="2"/>
-      <c r="HX42" s="2"/>
-      <c r="HY42" s="2"/>
-      <c r="HZ42" s="2"/>
-      <c r="IA42" s="2"/>
     </row>
-    <row r="43" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>167</v>
       </c>
@@ -9396,36 +9837,38 @@
       <c r="S43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EH43" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP43" s="2"/>
+      <c r="FQ43" s="2"/>
+      <c r="FR43" s="2"/>
+      <c r="FS43" s="2"/>
+      <c r="FT43" s="2"/>
       <c r="FU43" s="2"/>
       <c r="FV43" s="2"/>
       <c r="FW43" s="2"/>
@@ -9479,14 +9922,8 @@
       <c r="HS43" s="2"/>
       <c r="HT43" s="2"/>
       <c r="HU43" s="2"/>
-      <c r="HV43" s="2"/>
-      <c r="HW43" s="2"/>
-      <c r="HX43" s="2"/>
-      <c r="HY43" s="2"/>
-      <c r="HZ43" s="2"/>
-      <c r="IA43" s="2"/>
     </row>
-    <row r="44" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>181</v>
       </c>
@@ -9541,49 +9978,49 @@
       <c r="S44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM44" s="2" t="s">
+      <c r="X44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AP44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DL44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DQ44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DU44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EJ44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DY44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EC44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EL44" s="2" t="s">
@@ -9592,12 +10029,17 @@
       <c r="EM44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EO44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EU44" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="EN44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ET44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP44" s="2"/>
+      <c r="FQ44" s="2"/>
+      <c r="FR44" s="2"/>
+      <c r="FS44" s="2"/>
+      <c r="FT44" s="2"/>
       <c r="FU44" s="2"/>
       <c r="FV44" s="2"/>
       <c r="FW44" s="2"/>
@@ -9651,14 +10093,8 @@
       <c r="HS44" s="2"/>
       <c r="HT44" s="2"/>
       <c r="HU44" s="2"/>
-      <c r="HV44" s="2"/>
-      <c r="HW44" s="2"/>
-      <c r="HX44" s="2"/>
-      <c r="HY44" s="2"/>
-      <c r="HZ44" s="2"/>
-      <c r="IA44" s="2"/>
     </row>
-    <row r="45" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>181</v>
       </c>
@@ -9713,19 +10149,22 @@
       <c r="S45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD45" s="2" t="s">
+      <c r="Y45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EN45" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EO45" s="2" t="s">
@@ -9743,9 +10182,11 @@
       <c r="ES45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="ET45" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="FP45" s="2"/>
+      <c r="FQ45" s="2"/>
+      <c r="FR45" s="2"/>
+      <c r="FS45" s="2"/>
+      <c r="FT45" s="2"/>
       <c r="FU45" s="2"/>
       <c r="FV45" s="2"/>
       <c r="FW45" s="2"/>
@@ -9799,14 +10240,8 @@
       <c r="HS45" s="2"/>
       <c r="HT45" s="2"/>
       <c r="HU45" s="2"/>
-      <c r="HV45" s="2"/>
-      <c r="HW45" s="2"/>
-      <c r="HX45" s="2"/>
-      <c r="HY45" s="2"/>
-      <c r="HZ45" s="2"/>
-      <c r="IA45" s="2"/>
     </row>
-    <row r="46" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>181</v>
       </c>
@@ -9861,66 +10296,71 @@
       <c r="S46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ46" s="2" t="s">
+      <c r="W46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AV46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BB46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DV46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EO46" s="2" t="s">
+      <c r="BA46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DC46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EN46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EU46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EW46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EX46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EY46" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="FP46" s="2"/>
+      <c r="FQ46" s="2"/>
+      <c r="FR46" s="2"/>
+      <c r="FS46" s="2"/>
+      <c r="FT46" s="2"/>
       <c r="FU46" s="2"/>
       <c r="FV46" s="2"/>
       <c r="FW46" s="2"/>
@@ -9974,14 +10414,8 @@
       <c r="HS46" s="2"/>
       <c r="HT46" s="2"/>
       <c r="HU46" s="2"/>
-      <c r="HV46" s="2"/>
-      <c r="HW46" s="2"/>
-      <c r="HX46" s="2"/>
-      <c r="HY46" s="2"/>
-      <c r="HZ46" s="2"/>
-      <c r="IA46" s="2"/>
     </row>
-    <row r="47" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>181</v>
       </c>
@@ -10036,51 +10470,56 @@
       <c r="S47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK47" s="2" t="s">
-        <v>61</v>
+      <c r="Y47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AP47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CV47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CZ47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DU47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="EM47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EO47" s="2" t="s">
-        <v>72</v>
+      <c r="EN47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EX47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY47" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="EZ47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FB47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FC47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FD47" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="FA47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP47" s="2"/>
+      <c r="FQ47" s="2"/>
+      <c r="FR47" s="2"/>
+      <c r="FS47" s="2"/>
+      <c r="FT47" s="2"/>
       <c r="FU47" s="2"/>
       <c r="FV47" s="2"/>
       <c r="FW47" s="2"/>
@@ -10134,14 +10573,8 @@
       <c r="HS47" s="2"/>
       <c r="HT47" s="2"/>
       <c r="HU47" s="2"/>
-      <c r="HV47" s="2"/>
-      <c r="HW47" s="2"/>
-      <c r="HX47" s="2"/>
-      <c r="HY47" s="2"/>
-      <c r="HZ47" s="2"/>
-      <c r="IA47" s="2"/>
     </row>
-    <row r="48" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>181</v>
       </c>
@@ -10196,19 +10629,19 @@
       <c r="S48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="X48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG48" s="2" t="s">
+      <c r="Y48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AK48" s="2" t="s">
@@ -10217,33 +10650,38 @@
       <c r="AP48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW48" s="2" t="s">
+      <c r="AU48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BB48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CV48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DM48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EJ48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EO48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="FE48" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="BG48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DU48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EN48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="FB48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP48" s="2"/>
+      <c r="FQ48" s="2"/>
+      <c r="FR48" s="2"/>
+      <c r="FS48" s="2"/>
+      <c r="FT48" s="2"/>
       <c r="FU48" s="2"/>
       <c r="FV48" s="2"/>
       <c r="FW48" s="2"/>
@@ -10297,14 +10735,8 @@
       <c r="HS48" s="2"/>
       <c r="HT48" s="2"/>
       <c r="HU48" s="2"/>
-      <c r="HV48" s="2"/>
-      <c r="HW48" s="2"/>
-      <c r="HX48" s="2"/>
-      <c r="HY48" s="2"/>
-      <c r="HZ48" s="2"/>
-      <c r="IA48" s="2"/>
     </row>
-    <row r="49" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>181</v>
       </c>
@@ -10359,15 +10791,20 @@
       <c r="S49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DP49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FG49" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AE49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DX49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP49" s="2"/>
+      <c r="FQ49" s="2"/>
+      <c r="FR49" s="2"/>
+      <c r="FS49" s="2"/>
+      <c r="FT49" s="2"/>
       <c r="FU49" s="2"/>
       <c r="FV49" s="2"/>
       <c r="FW49" s="2"/>
@@ -10421,14 +10858,8 @@
       <c r="HS49" s="2"/>
       <c r="HT49" s="2"/>
       <c r="HU49" s="2"/>
-      <c r="HV49" s="2"/>
-      <c r="HW49" s="2"/>
-      <c r="HX49" s="2"/>
-      <c r="HY49" s="2"/>
-      <c r="HZ49" s="2"/>
-      <c r="IA49" s="2"/>
     </row>
-    <row r="50" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>181</v>
       </c>
@@ -10483,48 +10914,53 @@
       <c r="S50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EO50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FH50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FI50" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="Y50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EA50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="EN50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FD50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FE50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP50" s="2"/>
+      <c r="FQ50" s="2"/>
+      <c r="FR50" s="2"/>
+      <c r="FS50" s="2"/>
+      <c r="FT50" s="2"/>
       <c r="FU50" s="2"/>
       <c r="FV50" s="2"/>
       <c r="FW50" s="2"/>
@@ -10578,14 +11014,8 @@
       <c r="HS50" s="2"/>
       <c r="HT50" s="2"/>
       <c r="HU50" s="2"/>
-      <c r="HV50" s="2"/>
-      <c r="HW50" s="2"/>
-      <c r="HX50" s="2"/>
-      <c r="HY50" s="2"/>
-      <c r="HZ50" s="2"/>
-      <c r="IA50" s="2"/>
     </row>
-    <row r="51" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -10593,7 +11023,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
@@ -10621,7 +11051,7 @@
         <v>74</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>49</v>
@@ -10635,60 +11065,77 @@
       <c r="Q51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V51" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="X51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD51" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="AM51" s="6" t="s">
+      <c r="R51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH51" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="AK51" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="AR51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT51" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="BB51" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="BD51" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE51" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="BG51" s="5" t="s">
-        <v>477</v>
+      <c r="AU51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY51" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="BG51" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="BH51" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="BI51" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="BK51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BJ51" s="6" t="s">
+      <c r="BN51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="CY51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DM51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="EX51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="EY51" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="CN51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DH51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="EV51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="EW51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="FP51" s="2"/>
+      <c r="FQ51" s="2"/>
+      <c r="FR51" s="2"/>
+      <c r="FS51" s="2"/>
+      <c r="FT51" s="2"/>
       <c r="FU51" s="2"/>
       <c r="FV51" s="2"/>
       <c r="FW51" s="2"/>
@@ -10742,14 +11189,8 @@
       <c r="HS51" s="2"/>
       <c r="HT51" s="2"/>
       <c r="HU51" s="2"/>
-      <c r="HV51" s="2"/>
-      <c r="HW51" s="2"/>
-      <c r="HX51" s="2"/>
-      <c r="HY51" s="2"/>
-      <c r="HZ51" s="2"/>
-      <c r="IA51" s="2"/>
     </row>
-    <row r="52" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -10757,7 +11198,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
@@ -10799,48 +11240,62 @@
       <c r="Q52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DM52" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="R52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CN52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP52" s="2"/>
+      <c r="FQ52" s="2"/>
+      <c r="FR52" s="2"/>
+      <c r="FS52" s="2"/>
+      <c r="FT52" s="2"/>
       <c r="FU52" s="2"/>
       <c r="FV52" s="2"/>
       <c r="FW52" s="2"/>
@@ -10894,14 +11349,13 @@
       <c r="HS52" s="2"/>
       <c r="HT52" s="2"/>
       <c r="HU52" s="2"/>
-      <c r="HV52" s="2"/>
-      <c r="HW52" s="2"/>
-      <c r="HX52" s="2"/>
-      <c r="HY52" s="2"/>
-      <c r="HZ52" s="2"/>
-      <c r="IA52" s="2"/>
     </row>
-    <row r="53" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FP53" s="2"/>
+      <c r="FQ53" s="2"/>
+      <c r="FR53" s="2"/>
+      <c r="FS53" s="2"/>
+      <c r="FT53" s="2"/>
       <c r="FU53" s="2"/>
       <c r="FV53" s="2"/>
       <c r="FW53" s="2"/>
@@ -10955,23 +11409,17 @@
       <c r="HS53" s="2"/>
       <c r="HT53" s="2"/>
       <c r="HU53" s="2"/>
-      <c r="HV53" s="2"/>
-      <c r="HW53" s="2"/>
-      <c r="HX53" s="2"/>
-      <c r="HY53" s="2"/>
-      <c r="HZ53" s="2"/>
-      <c r="IA53" s="2"/>
     </row>
-    <row r="54" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
